--- a/sheet/cards_s7-2.xlsx
+++ b/sheet/cards_s7-2.xlsx
@@ -2570,7 +2570,7 @@
   </si>
   <si>
     <t xml:space="preserve">【常時】このカードは対応でしか使用できない。
----
+----
 (+2) 【攻撃後】対応した《攻撃》のダメージを打ち消す。その《攻撃》が《全力》または切札であるなら禁忌ゲージを2上げる。</t>
   </si>
   <si>
@@ -3125,7 +3125,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3214,10 +3214,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3270,10 +3266,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3322,10 +3314,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3366,10 +3354,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3396,10 +3380,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -3454,19 +3434,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3482,10 +3450,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3494,23 +3458,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3618,7 +3566,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="P23" activeCellId="1" sqref="AS2:AS15 P23"/>
+      <selection pane="bottomRight" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21287,25 +21235,25 @@
   <dimension ref="A1:AU758"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AP1" activeCellId="0" sqref="AP1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AS15" activeCellId="0" sqref="AS2:AS15"/>
+      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="AD14" activeCellId="0" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="19.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="19.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="23.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="23.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="16" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="16" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="15.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="16.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="43.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="16" width="16.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="16" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="16" width="43.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="16" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="16" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="16" width="4.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="16" width="18.12"/>
@@ -21319,7 +21267,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="16" width="45.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="16" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="16" width="45.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="16" width="19.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="16" width="19.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="16" width="45.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="16" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="16" width="42.88"/>
@@ -21489,14 +21437,14 @@
       <c r="G2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>458</v>
       </c>
       <c r="L2" s="2"/>
@@ -21512,54 +21460,54 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
-      <c r="U2" s="26"/>
+      <c r="U2" s="25"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="26"/>
+      <c r="W2" s="25"/>
       <c r="X2" s="2" t="s">
         <v>461</v>
       </c>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27" t="s">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="26"/>
+      <c r="AD2" s="26" t="s">
         <v>462</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="28" t="s">
+      <c r="AE2" s="26"/>
+      <c r="AF2" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="28" t="s">
+      <c r="AG2" s="26"/>
+      <c r="AH2" s="27" t="s">
         <v>464</v>
       </c>
-      <c r="AI2" s="29"/>
-      <c r="AJ2" s="30" t="s">
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="31" t="s">
+      <c r="AK2" s="26"/>
+      <c r="AL2" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="26"/>
-      <c r="AO2" s="26"/>
-      <c r="AP2" s="33" t="str">
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="32" t="str">
         <f aca="false">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
-        <v>    | '02-saine-A2-n-7'</v>
-      </c>
-      <c r="AS2" s="34" t="str">
+        <v>| '02-saine-A2-n-7'</v>
+      </c>
+      <c r="AS2" s="33" t="str">
         <f aca="false">IF(A2="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A2&amp;"': {megami: '"&amp;B2&amp;"'"&amp;IF(C2&lt;&gt;"",", anotherID: '"&amp;C2&amp;"', replace: '"&amp;D2&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E2,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K2,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G2,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H2,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J2,"'","\'")&amp;"', ruby: '"&amp;F2&amp;"', rubyEn: '"&amp;L2&amp;IF(I2&lt;&gt;"", "', rubyZh: '"&amp;I2, "")&amp;"', baseType: '"&amp;VLOOKUP(M2,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N2="○",", extra: true","")&amp;IF(O2&lt;&gt;"",", extraFrom: '"&amp;O2&amp;"'","")&amp;IF(P2&lt;&gt;"",", exchangableTo: '"&amp;P2&amp;"'","")&amp;IF(Q2="○",", poison: true","")&amp;IF(R2&lt;&gt;"", ", type: '"&amp;VLOOKUP(R2,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S2&lt;&gt;"",", subType: '"&amp;VLOOKUP(S2,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T2&lt;&gt;"",", range: '"&amp;T2&amp;"'","")&amp;IF(V2&lt;&gt;"",", damage: '"&amp;V2&amp;"'","")&amp;IF(X2&lt;&gt;"",", capacity: '"&amp;X2&amp;"'","")&amp;IF(Y2&lt;&gt;"",", growth: "&amp;Y2&amp;"","")&amp;IF(Z2&lt;&gt;"",", cost: '"&amp;Z2&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD2, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE2&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG2&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI2&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK2&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL2, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM2&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM2, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB2="○",", sealable: true","")&amp;IF(AC2="○",", removable: true","")&amp;IF(AA2="○",", lie: true","")&amp;"}")</f>
         <v>'02-saine-A2-n-7': {megami: 'saine', anotherID: 'A2', replace: '02-saine-o-n-7', name: '遺響壁', nameEn: 'Reverberant Wall', nameZh: '遗响壁', nameZhG1: '遗响壁', nameKo: '유향벽', ruby: 'いきょうへき', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '【展開中】あなたへのダメージを解决するに際し、このカードの上に置かれた桜花結晶をあなたのオーラにあるかのように扱う。\n【破棄時】八相-あなたのオーラが1以下かつ現在のターンがあなたのターンならば、攻撃『適正距離0-5、0/0、【攻撃後】相手のオーラに2ダメージを与え、このターンにあなたが次に行う《攻撃》は+0/+1となる』を行う。', textZh: '【展开中】对你造成的伤害结算时，此牌上的樱花结晶视为在自装中。\n【破弃时】本回合你的下一次《攻击》得+0/+1。', textZhG1: '【展开中】当你结算对装伤害时，此牌上的樱花结晶视为在自装中。\n【破弃时】本回合你的下一次《攻击》得+0/+1。', textKo: '【전개중】당신으로의 대미지를 해결 할 때, 이 카드 위에 놓인 벚꽃 결정을 당신의 오라에 있는 것처럼 취급한다.\n【파기시】이번 턴에 당신이 하는 다음 《공격》은 +0/+1된다.', textEn: 'Ongoing: Treat Sakura tokens on this card as if they were on your Aura whenever you are dealt damage.\n\nDisenchant: The next attack you make this turn gets +0/+1.'}</v>
       </c>
-      <c r="AT2" s="35" t="str">
+      <c r="AT2" s="34" t="str">
         <f aca="false">IF($A2&lt;&gt;"", "    /** 《"&amp;$E2&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A2, 3, 1)="-", RIGHT($A2,LEN($A2)-3), $A2)), "-", "_")&amp;": TCardId = '"&amp;$A2&amp;"';", "")</f>
-        <v>    /** 《遺響壁》 */ export const SAINE_A2_N_7: TCardId = '02-saine-A2-n-7';</v>
-      </c>
-      <c r="AU2" s="33" t="str">
+        <v>/** 《遺響壁》 */ export const SAINE_A2_N_7: TCardId = '02-saine-A2-n-7';</v>
+      </c>
+      <c r="AU2" s="32" t="str">
         <f aca="false">IF($A2&lt;&gt;"", "    | '"&amp;$A2&amp;"'", "")</f>
-        <v>    | '02-saine-A2-n-7'</v>
+        <v>| '02-saine-A2-n-7'</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="56" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21577,17 +21525,17 @@
       <c r="F3" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="22" t="s">
         <v>470</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="37" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="35" t="s">
         <v>471</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>472</v>
       </c>
       <c r="L3" s="2"/>
@@ -21603,54 +21551,54 @@
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
-      <c r="U3" s="26"/>
+      <c r="U3" s="25"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="26"/>
+      <c r="W3" s="25"/>
       <c r="X3" s="2" t="s">
         <v>461</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27" t="s">
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="28" t="s">
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="38" t="s">
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="40" t="s">
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="38" t="s">
         <v>476</v>
       </c>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="42" t="s">
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="40" t="s">
         <v>477</v>
       </c>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="33" t="str">
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="32" t="str">
         <f aca="false">IF($A3&lt;&gt;"", "    | '"&amp;$A3&amp;"'", "")</f>
-        <v>    | '08-hagane-o-n-7'</v>
-      </c>
-      <c r="AS3" s="34" t="str">
+        <v>| '08-hagane-o-n-7'</v>
+      </c>
+      <c r="AS3" s="33" t="str">
         <f aca="false">IF(A3="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A3&amp;"': {megami: '"&amp;B3&amp;"'"&amp;IF(C3&lt;&gt;"",", anotherID: '"&amp;C3&amp;"', replace: '"&amp;D3&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E3,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K3,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G3,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H3,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J3,"'","\'")&amp;"', ruby: '"&amp;F3&amp;"', rubyEn: '"&amp;L3&amp;IF(I3&lt;&gt;"", "', rubyZh: '"&amp;I3, "")&amp;"', baseType: '"&amp;VLOOKUP(M3,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N3="○",", extra: true","")&amp;IF(O3&lt;&gt;"",", extraFrom: '"&amp;O3&amp;"'","")&amp;IF(P3&lt;&gt;"",", exchangableTo: '"&amp;P3&amp;"'","")&amp;IF(Q3="○",", poison: true","")&amp;IF(R3&lt;&gt;"", ", type: '"&amp;VLOOKUP(R3,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S3&lt;&gt;"",", subType: '"&amp;VLOOKUP(S3,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T3&lt;&gt;"",", range: '"&amp;T3&amp;"'","")&amp;IF(V3&lt;&gt;"",", damage: '"&amp;V3&amp;"'","")&amp;IF(X3&lt;&gt;"",", capacity: '"&amp;X3&amp;"'","")&amp;IF(Y3&lt;&gt;"",", growth: "&amp;Y3&amp;"","")&amp;IF(Z3&lt;&gt;"",", cost: '"&amp;Z3&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD3, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE3&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG3&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI3&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK3&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL3, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM3&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM3, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB3="○",", sealable: true","")&amp;IF(AC3="○",", removable: true","")&amp;IF(AA3="○",", lie: true","")&amp;"}")</f>
         <v>, '08-hagane-o-n-7': {megami: 'hagane', name: '引力場', nameEn: 'Gravity Well', nameZh: '引力场', nameZhG1: '引力场', nameKo: '인력장', ruby: 'いんりょくば', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '2', text: '全力化：【常時】このカードの持つ矢印（→）で動く桜花結晶は1つ多くなる。\n\n【展開時】間合→自オーラ：1 \n【展開中】達人の間合は1小さくなる。', textZh: '【展开时】距→1→虚\n【展开中】达人距离的值减小1。', textZhG1: '【展开时】距（1）→虚\n【展开中】达人距离的值减小1。', textKo: '【전개시】간격→더스트：1 \n 【전개중】달인의 간격은 1 작게 된다.', textEn: 'Initialize:\nDistance (1)→ Shadow\n\nOngoing: Decrease the size of the Mastery Zone by 1.'}</v>
       </c>
-      <c r="AT3" s="35" t="str">
+      <c r="AT3" s="34" t="str">
         <f aca="false">IF($A3&lt;&gt;"", "    /** 《"&amp;$E3&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A3, 3, 1)="-", RIGHT($A3,LEN($A3)-3), $A3)), "-", "_")&amp;": TCardId = '"&amp;$A3&amp;"';", "")</f>
-        <v>    /** 《引力場》 */ export const HAGANE_O_N_7: TCardId = '08-hagane-o-n-7';</v>
-      </c>
-      <c r="AU3" s="33" t="str">
+        <v>/** 《引力場》 */ export const HAGANE_O_N_7: TCardId = '08-hagane-o-n-7';</v>
+      </c>
+      <c r="AU3" s="32" t="str">
         <f aca="false">IF($A3&lt;&gt;"", "    | '"&amp;$A3&amp;"'", "")</f>
-        <v>    | '08-hagane-o-n-7'</v>
+        <v>| '08-hagane-o-n-7'</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="83.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21666,19 +21614,19 @@
         <v>479</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="22" t="s">
         <v>480</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="35" t="s">
         <v>481</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="22" t="s">
         <v>482</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="24" t="s">
         <v>484</v>
       </c>
       <c r="L4" s="2"/>
@@ -21696,52 +21644,52 @@
         <v>486</v>
       </c>
       <c r="T4" s="2"/>
-      <c r="U4" s="26"/>
+      <c r="U4" s="25"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="26"/>
+      <c r="W4" s="25"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27" t="s">
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="28" t="s">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="43" t="s">
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="44" t="s">
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="46" t="s">
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="33" t="str">
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="32" t="str">
         <f aca="false">IF($A4&lt;&gt;"", "    | '"&amp;$A4&amp;"'", "")</f>
-        <v>    | '10-kururu-o-n-5'</v>
-      </c>
-      <c r="AS4" s="34" t="str">
+        <v>| '10-kururu-o-n-5'</v>
+      </c>
+      <c r="AS4" s="33" t="str">
         <f aca="false">IF(A4="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A4&amp;"': {megami: '"&amp;B4&amp;"'"&amp;IF(C4&lt;&gt;"",", anotherID: '"&amp;C4&amp;"', replace: '"&amp;D4&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E4,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K4,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G4,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H4,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J4,"'","\'")&amp;"', ruby: '"&amp;F4&amp;"', rubyEn: '"&amp;L4&amp;IF(I4&lt;&gt;"", "', rubyZh: '"&amp;I4, "")&amp;"', baseType: '"&amp;VLOOKUP(M4,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N4="○",", extra: true","")&amp;IF(O4&lt;&gt;"",", extraFrom: '"&amp;O4&amp;"'","")&amp;IF(P4&lt;&gt;"",", exchangableTo: '"&amp;P4&amp;"'","")&amp;IF(Q4="○",", poison: true","")&amp;IF(R4&lt;&gt;"", ", type: '"&amp;VLOOKUP(R4,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S4&lt;&gt;"",", subType: '"&amp;VLOOKUP(S4,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T4&lt;&gt;"",", range: '"&amp;T4&amp;"'","")&amp;IF(V4&lt;&gt;"",", damage: '"&amp;V4&amp;"'","")&amp;IF(X4&lt;&gt;"",", capacity: '"&amp;X4&amp;"'","")&amp;IF(Y4&lt;&gt;"",", growth: "&amp;Y4&amp;"","")&amp;IF(Z4&lt;&gt;"",", cost: '"&amp;Z4&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD4, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE4&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG4&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI4&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK4&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL4, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM4&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM4, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB4="○",", sealable: true","")&amp;IF(AC4="○",", removable: true","")&amp;IF(AA4="○",", lie: true","")&amp;"}")</f>
         <v>, '10-kururu-o-n-5': {megami: 'kururu', name: 'りげいなー', nameEn: 'Regainah', nameZh: '重振装置', nameZhG1: '回嗖利用', nameKo: '리게이너', ruby: '', rubyEn: '', rubyZh: 'Regainer', baseType: 'normal', type: 'action', subType: 'fullpower', text: '----\n&lt;付対&gt; 捨て札、伏せ札、切札のいずれかから未使用でも《全力》でもない他のメガミのカードを1枚選んでもよい。そのカードをコストを支払わずに使用する。その際、適正距離の全ての値、どちらかのダメージ、納のいずれかを1増減させてもよい。\n----\n【常時】このカードは伏せ札から手札にあるかのように通常の方法で使用できる。', textZh: '----\n&lt;攻对&gt; 你可以使用你的1张使用后的王牌，而不需支付其费用（可以选择《全力》牌）。\n----\n你的集中力变为0。', textZhG1: '----\n机巧：红紫 你可以使用你的一张正面朝上的王牌，而不需支付其费用（可以选择《全力》牌） 。\n----\n你的集中力变为0。', textKo: '----\n &lt;공대&gt; 당신의 사용완료 비장패를 1장 골라도 좋다. 그 카드를 소비를 지불하지 않고 사용한다. (《전력》카드여도 좋다) \n ----\n 당신의 집중력은 0이 된다.', textEn: 'Mechanism (ATK REA) - You may choose 1 of your Devoted Special cards. Play that card without paying its cost.\n----\nYour Vigor becomes 0.'}</v>
       </c>
-      <c r="AT4" s="35" t="str">
+      <c r="AT4" s="34" t="str">
         <f aca="false">IF($A4&lt;&gt;"", "    /** 《"&amp;$E4&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A4, 3, 1)="-", RIGHT($A4,LEN($A4)-3), $A4)), "-", "_")&amp;": TCardId = '"&amp;$A4&amp;"';", "")</f>
-        <v>    /** 《りげいなー》 */ export const KURURU_O_N_5: TCardId = '10-kururu-o-n-5';</v>
-      </c>
-      <c r="AU4" s="33" t="str">
+        <v>/** 《りげいなー》 */ export const KURURU_O_N_5: TCardId = '10-kururu-o-n-5';</v>
+      </c>
+      <c r="AU4" s="32" t="str">
         <f aca="false">IF($A4&lt;&gt;"", "    | '"&amp;$A4&amp;"'", "")</f>
-        <v>    | '10-kururu-o-n-5'</v>
+        <v>| '10-kururu-o-n-5'</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21759,17 +21707,17 @@
       <c r="F5" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="37" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="24" t="s">
         <v>497</v>
       </c>
       <c r="L5" s="2"/>
@@ -21787,54 +21735,54 @@
       <c r="T5" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="U5" s="26"/>
+      <c r="U5" s="25"/>
       <c r="V5" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="W5" s="26"/>
+      <c r="W5" s="25"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27" t="s">
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="28" t="s">
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="47" t="s">
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="AI5" s="47"/>
-      <c r="AJ5" s="40" t="s">
+      <c r="AI5" s="45"/>
+      <c r="AJ5" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="AK5" s="45"/>
-      <c r="AL5" s="48" t="s">
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="AM5" s="29"/>
-      <c r="AN5" s="26"/>
-      <c r="AO5" s="26"/>
-      <c r="AP5" s="33" t="str">
+      <c r="AM5" s="28"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="32" t="str">
         <f aca="false">IF($A5&lt;&gt;"", "    | '"&amp;$A5&amp;"'", "")</f>
-        <v>    | '13-utsuro-o-n-1'</v>
-      </c>
-      <c r="AS5" s="34" t="str">
+        <v>| '13-utsuro-o-n-1'</v>
+      </c>
+      <c r="AS5" s="33" t="str">
         <f aca="false">IF(A5="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A5&amp;"': {megami: '"&amp;B5&amp;"'"&amp;IF(C5&lt;&gt;"",", anotherID: '"&amp;C5&amp;"', replace: '"&amp;D5&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E5,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K5,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G5,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H5,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J5,"'","\'")&amp;"', ruby: '"&amp;F5&amp;"', rubyEn: '"&amp;L5&amp;IF(I5&lt;&gt;"", "', rubyZh: '"&amp;I5, "")&amp;"', baseType: '"&amp;VLOOKUP(M5,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N5="○",", extra: true","")&amp;IF(O5&lt;&gt;"",", extraFrom: '"&amp;O5&amp;"'","")&amp;IF(P5&lt;&gt;"",", exchangableTo: '"&amp;P5&amp;"'","")&amp;IF(Q5="○",", poison: true","")&amp;IF(R5&lt;&gt;"", ", type: '"&amp;VLOOKUP(R5,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S5&lt;&gt;"",", subType: '"&amp;VLOOKUP(S5,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T5&lt;&gt;"",", range: '"&amp;T5&amp;"'","")&amp;IF(V5&lt;&gt;"",", damage: '"&amp;V5&amp;"'","")&amp;IF(X5&lt;&gt;"",", capacity: '"&amp;X5&amp;"'","")&amp;IF(Y5&lt;&gt;"",", growth: "&amp;Y5&amp;"","")&amp;IF(Z5&lt;&gt;"",", cost: '"&amp;Z5&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD5, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE5&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG5&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI5&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK5&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL5, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM5&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM5, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB5="○",", sealable: true","")&amp;IF(AC5="○",", removable: true","")&amp;IF(AA5="○",", lie: true","")&amp;"}")</f>
         <v>, '13-utsuro-o-n-1': {megami: 'utsuro', name: '円月', nameEn: 'Full Moon', nameZh: '圆月', nameZhG1: '圆月', nameKo: '만월', ruby: 'えんげつ', rubyEn: '', baseType: 'normal', type: 'attack', range: '5-7', damage: '2/2', text: '【常時】灰塵-ダストが12以上ならば、この《攻撃》は距離拡大（近1）を得て、そのオーラへのダメージは「-」になる。', textZh: '【常时】灰尘～若虚中的樱花结晶数大于等于12，则此《攻击》对装伤害改为「-」。', textZhG1: '【常时】灰尘-若虚中的樱花结晶的数目大于12，则此《攻击》对装伤害改为“-”。', textKo: '【상시】회진-더스트가 12 이상이라면、이 《공격》의 오라로의 대미지는 「-」가 된다.', textEn: 'Forced: Ashen - If there are 12 or more Sakura tokens on Shadow, this attack\'s Damage to Aura becomes "-".'}</v>
       </c>
-      <c r="AT5" s="35" t="str">
+      <c r="AT5" s="34" t="str">
         <f aca="false">IF($A5&lt;&gt;"", "    /** 《"&amp;$E5&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A5, 3, 1)="-", RIGHT($A5,LEN($A5)-3), $A5)), "-", "_")&amp;": TCardId = '"&amp;$A5&amp;"';", "")</f>
-        <v>    /** 《円月》 */ export const UTSURO_O_N_1: TCardId = '13-utsuro-o-n-1';</v>
-      </c>
-      <c r="AU5" s="33" t="str">
+        <v>/** 《円月》 */ export const UTSURO_O_N_1: TCardId = '13-utsuro-o-n-1';</v>
+      </c>
+      <c r="AU5" s="32" t="str">
         <f aca="false">IF($A5&lt;&gt;"", "    | '"&amp;$A5&amp;"'", "")</f>
-        <v>    | '13-utsuro-o-n-1'</v>
+        <v>| '13-utsuro-o-n-1'</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21852,17 +21800,17 @@
       <c r="F6" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="24" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="23" t="s">
         <v>510</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="24" t="s">
         <v>511</v>
       </c>
       <c r="L6" s="2"/>
@@ -21875,61 +21823,61 @@
         <v>512</v>
       </c>
       <c r="Q6" s="2"/>
-      <c r="R6" s="50" t="s">
+      <c r="R6" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="S6" s="50"/>
-      <c r="T6" s="51" t="s">
+      <c r="S6" s="47"/>
+      <c r="T6" s="48" t="s">
         <v>513</v>
       </c>
-      <c r="U6" s="26"/>
+      <c r="U6" s="25"/>
       <c r="V6" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="W6" s="26"/>
+      <c r="W6" s="25"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27" t="s">
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26" t="s">
         <v>515</v>
       </c>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="29" t="s">
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="28" t="s">
         <v>516</v>
       </c>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="52" t="s">
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="49" t="s">
         <v>517</v>
       </c>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="27" t="s">
+      <c r="AI6" s="49"/>
+      <c r="AJ6" s="26" t="s">
         <v>518</v>
       </c>
-      <c r="AK6" s="27"/>
-      <c r="AL6" s="42" t="s">
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="40" t="s">
         <v>519</v>
       </c>
-      <c r="AM6" s="29"/>
-      <c r="AN6" s="26"/>
-      <c r="AO6" s="26"/>
-      <c r="AP6" s="33" t="str">
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="32" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    | '"&amp;$A6&amp;"'", "")</f>
-        <v>    | '14-honoka-o-n-1'</v>
-      </c>
-      <c r="AS6" s="34" t="str">
+        <v>| '14-honoka-o-n-1'</v>
+      </c>
+      <c r="AS6" s="33" t="str">
         <f aca="false">IF(A6="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A6&amp;"': {megami: '"&amp;B6&amp;"'"&amp;IF(C6&lt;&gt;"",", anotherID: '"&amp;C6&amp;"', replace: '"&amp;D6&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E6,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K6,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G6,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H6,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J6,"'","\'")&amp;"', ruby: '"&amp;F6&amp;"', rubyEn: '"&amp;L6&amp;IF(I6&lt;&gt;"", "', rubyZh: '"&amp;I6, "")&amp;"', baseType: '"&amp;VLOOKUP(M6,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N6="○",", extra: true","")&amp;IF(O6&lt;&gt;"",", extraFrom: '"&amp;O6&amp;"'","")&amp;IF(P6&lt;&gt;"",", exchangableTo: '"&amp;P6&amp;"'","")&amp;IF(Q6="○",", poison: true","")&amp;IF(R6&lt;&gt;"", ", type: '"&amp;VLOOKUP(R6,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S6&lt;&gt;"",", subType: '"&amp;VLOOKUP(S6,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T6&lt;&gt;"",", range: '"&amp;T6&amp;"'","")&amp;IF(V6&lt;&gt;"",", damage: '"&amp;V6&amp;"'","")&amp;IF(X6&lt;&gt;"",", capacity: '"&amp;X6&amp;"'","")&amp;IF(Y6&lt;&gt;"",", growth: "&amp;Y6&amp;"","")&amp;IF(Z6&lt;&gt;"",", cost: '"&amp;Z6&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD6, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE6&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG6&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI6&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK6&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL6, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM6&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM6, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB6="○",", sealable: true","")&amp;IF(AC6="○",", removable: true","")&amp;IF(AA6="○",", lie: true","")&amp;"}")</f>
         <v>, '14-honoka-o-n-1': {megami: 'honoka', name: '精霊式', nameEn: 'Spirit Rite', nameZh: '精灵式', nameZhG1: '精灵式', nameKo: '정령식', ruby: 'せいれいしき', rubyEn: '', baseType: 'normal', exchangableTo: '14-honoka-o-n-1-ex1', type: 'attack', range: '2-8', damage: '1/1', text: '対応不可 \n【攻撃後】開花-この「精霊式」を追加札の「守護霊式」と交換してもよい。そうした場合、その「守護霊式」を山札の底に置いてもよい。', textZh: '不可被对应\n【攻击后】开花～你可以将这张『精灵式』与追加牌区的『守护灵式』交换。若如此做，则你可以将『守护灵式』置于你的牌库底。', textZhG1: '不可被对应\n【攻击后】开花-将此牌与追加牌『守护灵式』交换。若如此做，则你可以将『守护灵式』置于你的牌库底。', textKo: '대응불가 \n【공격후】개화-이 「정령식」을 추가패의 「수호령식」과 교환해도 좋다. 그럴 경우, 그 「수호령식」을 패산 밑에 두어도 좋다.', textEn: 'No Reactions\n\nAfter Attack: Bloom - You may exchange this card with your set aside "Guardian Spirit Rite". If you do, you may put that card on the bottom of your deck.'}</v>
       </c>
-      <c r="AT6" s="35" t="str">
+      <c r="AT6" s="34" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    /** 《"&amp;$E6&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A6, 3, 1)="-", RIGHT($A6,LEN($A6)-3), $A6)), "-", "_")&amp;": TCardId = '"&amp;$A6&amp;"';", "")</f>
-        <v>    /** 《精霊式》 */ export const HONOKA_O_N_1: TCardId = '14-honoka-o-n-1';</v>
-      </c>
-      <c r="AU6" s="33" t="str">
+        <v>/** 《精霊式》 */ export const HONOKA_O_N_1: TCardId = '14-honoka-o-n-1';</v>
+      </c>
+      <c r="AU6" s="32" t="str">
         <f aca="false">IF($A6&lt;&gt;"", "    | '"&amp;$A6&amp;"'", "")</f>
-        <v>    | '14-honoka-o-n-1'</v>
+        <v>| '14-honoka-o-n-1'</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="65.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21947,17 +21895,17 @@
       <c r="F7" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="24" t="s">
+      <c r="I7" s="2"/>
+      <c r="J7" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="24" t="s">
         <v>525</v>
       </c>
       <c r="L7" s="2"/>
@@ -21974,61 +21922,61 @@
         <v>526</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50" t="s">
+      <c r="S7" s="47"/>
+      <c r="T7" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="U7" s="26"/>
+      <c r="U7" s="25"/>
       <c r="V7" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="W7" s="26"/>
+      <c r="W7" s="25"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
-      <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="53" t="s">
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="50" t="s">
         <v>529</v>
       </c>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="28" t="s">
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="27" t="s">
         <v>530</v>
       </c>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="52" t="s">
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="49" t="s">
         <v>531</v>
       </c>
-      <c r="AI7" s="27"/>
-      <c r="AJ7" s="27" t="s">
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="AK7" s="27"/>
-      <c r="AL7" s="54" t="s">
+      <c r="AK7" s="26"/>
+      <c r="AL7" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="AM7" s="29"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="33" t="str">
+      <c r="AM7" s="28"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="32" t="str">
         <f aca="false">IF($A7&lt;&gt;"", "    | '"&amp;$A7&amp;"'", "")</f>
-        <v>    | '14-honoka-o-n-1-ex2'</v>
-      </c>
-      <c r="AS7" s="34" t="str">
+        <v>| '14-honoka-o-n-1-ex2'</v>
+      </c>
+      <c r="AS7" s="33" t="str">
         <f aca="false">IF(A7="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A7&amp;"': {megami: '"&amp;B7&amp;"'"&amp;IF(C7&lt;&gt;"",", anotherID: '"&amp;C7&amp;"', replace: '"&amp;D7&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E7,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K7,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G7,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H7,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J7,"'","\'")&amp;"', ruby: '"&amp;F7&amp;"', rubyEn: '"&amp;L7&amp;IF(I7&lt;&gt;"", "', rubyZh: '"&amp;I7, "")&amp;"', baseType: '"&amp;VLOOKUP(M7,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N7="○",", extra: true","")&amp;IF(O7&lt;&gt;"",", extraFrom: '"&amp;O7&amp;"'","")&amp;IF(P7&lt;&gt;"",", exchangableTo: '"&amp;P7&amp;"'","")&amp;IF(Q7="○",", poison: true","")&amp;IF(R7&lt;&gt;"", ", type: '"&amp;VLOOKUP(R7,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S7&lt;&gt;"",", subType: '"&amp;VLOOKUP(S7,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T7&lt;&gt;"",", range: '"&amp;T7&amp;"'","")&amp;IF(V7&lt;&gt;"",", damage: '"&amp;V7&amp;"'","")&amp;IF(X7&lt;&gt;"",", capacity: '"&amp;X7&amp;"'","")&amp;IF(Y7&lt;&gt;"",", growth: "&amp;Y7&amp;"","")&amp;IF(Z7&lt;&gt;"",", cost: '"&amp;Z7&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD7, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE7&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG7&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI7&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK7&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL7, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM7&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM7, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB7="○",", sealable: true","")&amp;IF(AC7="○",", removable: true","")&amp;IF(AA7="○",", lie: true","")&amp;"}")</f>
         <v>, '14-honoka-o-n-1-ex2': {megami: 'honoka', name: '突撃霊式', nameEn: 'Destructive Spirit Rite', nameZh: '突击灵式', nameZhG1: '突击灵式', nameKo: '돌격령식', ruby: 'とつげきれいしき', rubyEn: '', baseType: 'normal', extra: true, extraFrom: '14-honoka-o-n-1-ex1', exchangableTo: '14-honoka-o-n-1-ex3', type: 'attack', range: '5', damage: '3/2', text: '対応不可 \n【攻撃後】ダスト→自ライフ：1\n【攻撃後】開花-この「突撃霊式」を追加札の「神霊ヲウカ」と交換してもよい。そうした場合、その「神霊ヲウカ」を山札の底に置いてもよい。', textZh: '不可被闪避\n【攻击后】开花～你可以将这张『突击灵式』与追加牌区的『神灵樱华』交换。若如此做，则你可以将『神灵樱华』置于你的牌库底。', textZhG1: '不可被闪避\n【攻击后】开花-将此牌与追加牌『神灵樱华』交换。若如此做，则你可以将『神灵樱华』置于你的牌库底。', textKo: '불가피 \n【공격후】개화-이 「돌격령식」을 추가패의 「신령 오우카」와 교환해도 좋다. 그럴 경우, 그 「신령 오우카」를 패산 밑에 두어도 좋다.', textEn: 'Unavoidable\n\nAfter Attack: Bloom - You may exchange this card with your set aside "Divine Spirit: Ouka". If you do, you may put that card on the bottom of your deck.'}</v>
       </c>
-      <c r="AT7" s="35" t="str">
+      <c r="AT7" s="34" t="str">
         <f aca="false">IF($A7&lt;&gt;"", "    /** 《"&amp;$E7&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A7, 3, 1)="-", RIGHT($A7,LEN($A7)-3), $A7)), "-", "_")&amp;": TCardId = '"&amp;$A7&amp;"';", "")</f>
-        <v>    /** 《突撃霊式》 */ export const HONOKA_O_N_1_EX2: TCardId = '14-honoka-o-n-1-ex2';</v>
-      </c>
-      <c r="AU7" s="33" t="str">
+        <v>/** 《突撃霊式》 */ export const HONOKA_O_N_1_EX2: TCardId = '14-honoka-o-n-1-ex2';</v>
+      </c>
+      <c r="AU7" s="32" t="str">
         <f aca="false">IF($A7&lt;&gt;"", "    | '"&amp;$A7&amp;"'", "")</f>
-        <v>    | '14-honoka-o-n-1-ex2'</v>
+        <v>| '14-honoka-o-n-1-ex2'</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22049,14 +21997,14 @@
       <c r="G8" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="55" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="52" t="s">
         <v>538</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="24" t="s">
         <v>539</v>
       </c>
       <c r="L8" s="2"/>
@@ -22074,333 +22022,333 @@
         <v>540</v>
       </c>
       <c r="T8" s="2"/>
-      <c r="U8" s="26"/>
+      <c r="U8" s="25"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="26"/>
+      <c r="W8" s="25"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
-      <c r="AB8" s="27"/>
-      <c r="AC8" s="27"/>
-      <c r="AD8" s="27" t="s">
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26" t="s">
         <v>541</v>
       </c>
-      <c r="AE8" s="27"/>
-      <c r="AF8" s="28" t="s">
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="27" t="s">
         <v>542</v>
       </c>
-      <c r="AG8" s="27"/>
-      <c r="AH8" s="29" t="s">
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="AI8" s="29"/>
-      <c r="AJ8" s="27" t="s">
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="26" t="s">
         <v>543</v>
       </c>
-      <c r="AK8" s="27"/>
-      <c r="AL8" s="56" t="s">
+      <c r="AK8" s="26"/>
+      <c r="AL8" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="33" t="str">
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="32" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    | '"&amp;$A8&amp;"'", "")</f>
-        <v>    | '15-korunu-o-n-5'</v>
-      </c>
-      <c r="AS8" s="34" t="str">
+        <v>| '15-korunu-o-n-5'</v>
+      </c>
+      <c r="AS8" s="33" t="str">
         <f aca="false">IF(A8="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A8&amp;"': {megami: '"&amp;B8&amp;"'"&amp;IF(C8&lt;&gt;"",", anotherID: '"&amp;C8&amp;"', replace: '"&amp;D8&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E8,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K8,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G8,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H8,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J8,"'","\'")&amp;"', ruby: '"&amp;F8&amp;"', rubyEn: '"&amp;L8&amp;IF(I8&lt;&gt;"", "', rubyZh: '"&amp;I8, "")&amp;"', baseType: '"&amp;VLOOKUP(M8,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N8="○",", extra: true","")&amp;IF(O8&lt;&gt;"",", extraFrom: '"&amp;O8&amp;"'","")&amp;IF(P8&lt;&gt;"",", exchangableTo: '"&amp;P8&amp;"'","")&amp;IF(Q8="○",", poison: true","")&amp;IF(R8&lt;&gt;"", ", type: '"&amp;VLOOKUP(R8,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S8&lt;&gt;"",", subType: '"&amp;VLOOKUP(S8,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T8&lt;&gt;"",", range: '"&amp;T8&amp;"'","")&amp;IF(V8&lt;&gt;"",", damage: '"&amp;V8&amp;"'","")&amp;IF(X8&lt;&gt;"",", capacity: '"&amp;X8&amp;"'","")&amp;IF(Y8&lt;&gt;"",", growth: "&amp;Y8&amp;"","")&amp;IF(Z8&lt;&gt;"",", cost: '"&amp;Z8&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD8, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE8&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG8&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI8&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK8&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL8, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM8&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM8, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB8="○",", sealable: true","")&amp;IF(AC8="○",", removable: true","")&amp;IF(AA8="○",", lie: true","")&amp;"}")</f>
         <v>, '15-korunu-o-n-5': {megami: 'korunu', name: '絶対零度', nameEn: 'Absolute Zero', nameZh: '绝对零度', nameZhG1: '绝对零度', nameKo: '절대영도', ruby: 'ぜったいれいど', rubyEn: '', baseType: 'normal', type: 'action', subType: 'reaction', text: '全力化：攻撃『適正距離2-5、1/2』を行い、相手はオーラの空きがなくなるまで凍結する。\n\n基本動作《纏い》を1回行う。相手が3つ以上凍結しているならばさらにもう1回行う。', textZh: '冻结对手，直至敌装中没有空位为止。', textZhG1: '冻结对手，直至敌装中没有空位为止。', textKo: '상대의 오라가 꽉 찰때까지 동결시킨다.', textEn: 'Freeze your opponent until their Aura is full.'}</v>
       </c>
-      <c r="AT8" s="35" t="str">
+      <c r="AT8" s="34" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    /** 《"&amp;$E8&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A8, 3, 1)="-", RIGHT($A8,LEN($A8)-3), $A8)), "-", "_")&amp;": TCardId = '"&amp;$A8&amp;"';", "")</f>
-        <v>    /** 《絶対零度》 */ export const KORUNU_O_N_5: TCardId = '15-korunu-o-n-5';</v>
-      </c>
-      <c r="AU8" s="33" t="str">
+        <v>/** 《絶対零度》 */ export const KORUNU_O_N_5: TCardId = '15-korunu-o-n-5';</v>
+      </c>
+      <c r="AU8" s="32" t="str">
         <f aca="false">IF($A8&lt;&gt;"", "    | '"&amp;$A8&amp;"'", "")</f>
-        <v>    | '15-korunu-o-n-5'</v>
+        <v>| '15-korunu-o-n-5'</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="54" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="54" t="s">
         <v>546</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="54" t="s">
         <v>548</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="55" t="s">
         <v>549</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="56" t="s">
         <v>549</v>
       </c>
-      <c r="I9" s="60"/>
-      <c r="J9" s="59" t="s">
+      <c r="I9" s="55"/>
+      <c r="J9" s="56" t="s">
         <v>550</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K9" s="57" t="s">
         <v>551</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57" t="s">
+      <c r="L9" s="54"/>
+      <c r="M9" s="54" t="s">
         <v>552</v>
       </c>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57" t="s">
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57" t="s">
+      <c r="S9" s="54"/>
+      <c r="T9" s="54" t="s">
         <v>553</v>
       </c>
-      <c r="U9" s="62"/>
-      <c r="V9" s="57" t="s">
+      <c r="U9" s="58"/>
+      <c r="V9" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57" t="s">
+      <c r="W9" s="58"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54" t="s">
         <v>555</v>
       </c>
       <c r="AA9" s="2"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="63" t="s">
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="59" t="s">
         <v>556</v>
       </c>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="64" t="s">
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60" t="s">
         <v>557</v>
       </c>
-      <c r="AG9" s="63"/>
-      <c r="AH9" s="65" t="s">
+      <c r="AG9" s="59"/>
+      <c r="AH9" s="61" t="s">
         <v>558</v>
       </c>
-      <c r="AI9" s="63"/>
-      <c r="AJ9" s="66" t="s">
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="62" t="s">
         <v>559</v>
       </c>
-      <c r="AK9" s="63"/>
-      <c r="AL9" s="67" t="s">
+      <c r="AK9" s="59"/>
+      <c r="AL9" s="63" t="s">
         <v>560</v>
       </c>
-      <c r="AM9" s="27"/>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26"/>
-      <c r="AP9" s="33" t="str">
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="32" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    | '"&amp;$A9&amp;"'", "")</f>
-        <v>    | '16-yatsuha-A1-s-4'</v>
-      </c>
-      <c r="AS9" s="34" t="str">
+        <v>| '16-yatsuha-A1-s-4'</v>
+      </c>
+      <c r="AS9" s="33" t="str">
         <f aca="false">IF(A9="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A9&amp;"': {megami: '"&amp;B9&amp;"'"&amp;IF(C9&lt;&gt;"",", anotherID: '"&amp;C9&amp;"', replace: '"&amp;D9&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E9,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K9,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G9,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H9,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J9,"'","\'")&amp;"', ruby: '"&amp;F9&amp;"', rubyEn: '"&amp;L9&amp;IF(I9&lt;&gt;"", "', rubyZh: '"&amp;I9, "")&amp;"', baseType: '"&amp;VLOOKUP(M9,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N9="○",", extra: true","")&amp;IF(O9&lt;&gt;"",", extraFrom: '"&amp;O9&amp;"'","")&amp;IF(P9&lt;&gt;"",", exchangableTo: '"&amp;P9&amp;"'","")&amp;IF(Q9="○",", poison: true","")&amp;IF(R9&lt;&gt;"", ", type: '"&amp;VLOOKUP(R9,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S9&lt;&gt;"",", subType: '"&amp;VLOOKUP(S9,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T9&lt;&gt;"",", range: '"&amp;T9&amp;"'","")&amp;IF(V9&lt;&gt;"",", damage: '"&amp;V9&amp;"'","")&amp;IF(X9&lt;&gt;"",", capacity: '"&amp;X9&amp;"'","")&amp;IF(Y9&lt;&gt;"",", growth: "&amp;Y9&amp;"","")&amp;IF(Z9&lt;&gt;"",", cost: '"&amp;Z9&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD9, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE9&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG9&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI9&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK9&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL9, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM9&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM9, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB9="○",", sealable: true","")&amp;IF(AC9="○",", removable: true","")&amp;IF(AA9="○",", lie: true","")&amp;"}")</f>
         <v>, '16-yatsuha-A1-s-4': {megami: 'yatsuha', anotherID: 'A1', replace: '16-yatsuha-o-s-4', name: '八葉鏡の徒桜', nameEn: 'Naughtbloom of the Eight Mirrors', nameZh: '八叶镜的徒樱', nameZhG1: '八叶镜的徒樱', nameKo: '야츠하거울의 허무의 벚꽃', ruby: 'やつはかがみのあだざくら', rubyEn: '', baseType: 'special', type: 'attack', range: '0-8', damage: '1/0', cost: '1', text: '終端　対応不可\n【攻撃後/使用済】攻撃後とあなたが山札を再構成する直前に、あなたの捨て札または手札にあるヤツハのカード1枚を公開し、完全態にしてもよい。\n（例えば手札の「星の爪」を公開したなら追加札の「星辰の鉤爪」と交換され、手札に加わる）', textZh: '【使用后】如果你要重铸牌库，则在之前你可以公开你弃牌或者手牌中的一张八叶的牌并将其变为完全态。\n（例如将手牌中的『星之爪』公开的话就和追加牌区的『星辰之钩爪』作交换并加入手牌。）', textZhG1: '【使用后】每当你将要重铸牌库时，你可以从弃牌区或手牌中选择1张八叶的牌，展示该牌，然后将其变为完全态。\n（例如，若你展示了手牌中的『星之爪』，则将其与追加牌中的『星尘之利爪』交换，并加入手牌。）', textKo: '【사용됨】 당신이 패산의 재구성을 수행할 때, 직전에 당신의 버림패나 손패의 야츠하의 카드 1장을 공개한 뒤,완전태로 바꿀 수 있다.\n(예를 들어 손패의 별의 손톱을 공개했다면,\n추가패의 성진의 발톱과 교환하여 손패로 추가한다.)', textEn: 'Devoted: Immediately before reshuffling your deck, you may reveal a Yatsuha card from your hand or played pile and Perfect it. (For example, if you reveal "Astral Claw" from your hand, exchange it for your set aside "Celestial Talon" and add it your hand.)'}</v>
       </c>
-      <c r="AT9" s="35" t="str">
+      <c r="AT9" s="34" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    /** 《"&amp;$E9&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A9, 3, 1)="-", RIGHT($A9,LEN($A9)-3), $A9)), "-", "_")&amp;": TCardId = '"&amp;$A9&amp;"';", "")</f>
-        <v>    /** 《八葉鏡の徒桜》 */ export const YATSUHA_A1_S_4: TCardId = '16-yatsuha-A1-s-4';</v>
-      </c>
-      <c r="AU9" s="33" t="str">
+        <v>/** 《八葉鏡の徒桜》 */ export const YATSUHA_A1_S_4: TCardId = '16-yatsuha-A1-s-4';</v>
+      </c>
+      <c r="AU9" s="32" t="str">
         <f aca="false">IF($A9&lt;&gt;"", "    | '"&amp;$A9&amp;"'", "")</f>
-        <v>    | '16-yatsuha-A1-s-4'</v>
+        <v>| '16-yatsuha-A1-s-4'</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68" t="s">
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="64" t="s">
         <v>563</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="64" t="s">
         <v>564</v>
       </c>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="64" t="s">
         <v>565</v>
       </c>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71" t="s">
+      <c r="I10" s="65"/>
+      <c r="J10" s="66" t="s">
         <v>566</v>
       </c>
-      <c r="K10" s="72" t="s">
+      <c r="K10" s="67" t="s">
         <v>567</v>
       </c>
-      <c r="L10" s="68"/>
-      <c r="M10" s="68" t="s">
+      <c r="L10" s="64"/>
+      <c r="M10" s="64" t="s">
         <v>459</v>
       </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68" t="s">
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="S10" s="68" t="s">
+      <c r="S10" s="64" t="s">
         <v>486</v>
       </c>
       <c r="T10" s="2"/>
-      <c r="U10" s="26"/>
+      <c r="U10" s="25"/>
       <c r="V10" s="2"/>
-      <c r="W10" s="26"/>
+      <c r="W10" s="25"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="73" t="s">
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="68" t="s">
         <v>568</v>
       </c>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="74" t="s">
+      <c r="AE10" s="68"/>
+      <c r="AF10" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="76" t="s">
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="71" t="s">
         <v>570</v>
       </c>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="75" t="s">
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="70" t="s">
         <v>571</v>
       </c>
-      <c r="AK10" s="75"/>
-      <c r="AL10" s="77" t="s">
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="72" t="s">
         <v>572</v>
       </c>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="33" t="str">
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="32" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    | '"&amp;$A10&amp;"'", "")</f>
-        <v>    | '17-hatsumi-o-n-5'</v>
-      </c>
-      <c r="AS10" s="34" t="str">
+        <v>| '17-hatsumi-o-n-5'</v>
+      </c>
+      <c r="AS10" s="33" t="str">
         <f aca="false">IF(A10="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A10&amp;"': {megami: '"&amp;B10&amp;"'"&amp;IF(C10&lt;&gt;"",", anotherID: '"&amp;C10&amp;"', replace: '"&amp;D10&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E10,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K10,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G10,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H10,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J10,"'","\'")&amp;"', ruby: '"&amp;F10&amp;"', rubyEn: '"&amp;L10&amp;IF(I10&lt;&gt;"", "', rubyZh: '"&amp;I10, "")&amp;"', baseType: '"&amp;VLOOKUP(M10,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N10="○",", extra: true","")&amp;IF(O10&lt;&gt;"",", extraFrom: '"&amp;O10&amp;"'","")&amp;IF(P10&lt;&gt;"",", exchangableTo: '"&amp;P10&amp;"'","")&amp;IF(Q10="○",", poison: true","")&amp;IF(R10&lt;&gt;"", ", type: '"&amp;VLOOKUP(R10,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S10&lt;&gt;"",", subType: '"&amp;VLOOKUP(S10,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T10&lt;&gt;"",", range: '"&amp;T10&amp;"'","")&amp;IF(V10&lt;&gt;"",", damage: '"&amp;V10&amp;"'","")&amp;IF(X10&lt;&gt;"",", capacity: '"&amp;X10&amp;"'","")&amp;IF(Y10&lt;&gt;"",", growth: "&amp;Y10&amp;"","")&amp;IF(Z10&lt;&gt;"",", cost: '"&amp;Z10&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD10, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE10&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG10&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI10&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK10&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL10, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM10&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM10, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB10="○",", sealable: true","")&amp;IF(AC10="○",", removable: true","")&amp;IF(AA10="○",", lie: true","")&amp;"}")</f>
         <v>, '17-hatsumi-o-n-5': {megami: 'hatsumi', name: '準備万端', nameEn: 'Batten Down', nameZh: '万事俱备', nameZhG1: '准备万全', nameKo: '준비만전', ruby: 'じゅんびばんたん', rubyEn: '', baseType: 'normal', type: 'action', subType: 'fullpower', text: 'ダスト→自オーラ：3\nカードを1枚引いてもよい。\n逆風ならばこのターンの間、手札の上限が1増加する。', textZh: '虚→3→自装\n你将一张手牌置于牌库顶。', textZhG1: '虚（3）→自装\n你可以从手牌中选择1张牌，将其置于你的牌库顶。', textKo: '더스트→자신 오라：3\n당신은 손패를 1장 고르고, 그것을 패산 가장 위에 올려두어도 좋다.', textEn: 'Shadow (3)→ Your Aura\n\nYou may choose a card in your hand and put it on top of your deck.'}</v>
       </c>
-      <c r="AT10" s="35" t="str">
+      <c r="AT10" s="34" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    /** 《"&amp;$E10&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A10, 3, 1)="-", RIGHT($A10,LEN($A10)-3), $A10)), "-", "_")&amp;": TCardId = '"&amp;$A10&amp;"';", "")</f>
-        <v>    /** 《準備万端》 */ export const HATSUMI_O_N_5: TCardId = '17-hatsumi-o-n-5';</v>
-      </c>
-      <c r="AU10" s="33" t="str">
+        <v>/** 《準備万端》 */ export const HATSUMI_O_N_5: TCardId = '17-hatsumi-o-n-5';</v>
+      </c>
+      <c r="AU10" s="32" t="str">
         <f aca="false">IF($A10&lt;&gt;"", "    | '"&amp;$A10&amp;"'", "")</f>
-        <v>    | '17-hatsumi-o-n-5'</v>
+        <v>| '17-hatsumi-o-n-5'</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="64" t="s">
         <v>573</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68" t="s">
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64" t="s">
         <v>574</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="64" t="s">
         <v>575</v>
       </c>
-      <c r="G11" s="68" t="s">
+      <c r="G11" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="64" t="s">
         <v>576</v>
       </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="69" t="s">
+      <c r="I11" s="65"/>
+      <c r="J11" s="64" t="s">
         <v>577</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="73" t="s">
         <v>578</v>
       </c>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68" t="s">
+      <c r="L11" s="64"/>
+      <c r="M11" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68" t="s">
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="68"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="68" t="s">
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64" t="s">
         <v>579</v>
       </c>
       <c r="AA11" s="2"/>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27"/>
-      <c r="AD11" s="80" t="s">
+      <c r="AB11" s="26"/>
+      <c r="AC11" s="26"/>
+      <c r="AD11" s="75" t="s">
         <v>580</v>
       </c>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="81" t="s">
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="76" t="s">
         <v>581</v>
       </c>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="76" t="s">
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="71" t="s">
         <v>582</v>
       </c>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="75" t="s">
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="70" t="s">
         <v>583</v>
       </c>
-      <c r="AK11" s="75"/>
-      <c r="AL11" s="77" t="s">
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="72" t="s">
         <v>584</v>
       </c>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="26"/>
-      <c r="AO11" s="26"/>
-      <c r="AP11" s="33" t="str">
+      <c r="AM11" s="28"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="32" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    | '"&amp;$A11&amp;"'", "")</f>
-        <v>    | '18-mizuki-o-s-3'</v>
-      </c>
-      <c r="AS11" s="34" t="str">
+        <v>| '18-mizuki-o-s-3'</v>
+      </c>
+      <c r="AS11" s="33" t="str">
         <f aca="false">IF(A11="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A11&amp;"': {megami: '"&amp;B11&amp;"'"&amp;IF(C11&lt;&gt;"",", anotherID: '"&amp;C11&amp;"', replace: '"&amp;D11&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E11,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K11,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G11,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H11,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J11,"'","\'")&amp;"', ruby: '"&amp;F11&amp;"', rubyEn: '"&amp;L11&amp;IF(I11&lt;&gt;"", "', rubyZh: '"&amp;I11, "")&amp;"', baseType: '"&amp;VLOOKUP(M11,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N11="○",", extra: true","")&amp;IF(O11&lt;&gt;"",", extraFrom: '"&amp;O11&amp;"'","")&amp;IF(P11&lt;&gt;"",", exchangableTo: '"&amp;P11&amp;"'","")&amp;IF(Q11="○",", poison: true","")&amp;IF(R11&lt;&gt;"", ", type: '"&amp;VLOOKUP(R11,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S11&lt;&gt;"",", subType: '"&amp;VLOOKUP(S11,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T11&lt;&gt;"",", range: '"&amp;T11&amp;"'","")&amp;IF(V11&lt;&gt;"",", damage: '"&amp;V11&amp;"'","")&amp;IF(X11&lt;&gt;"",", capacity: '"&amp;X11&amp;"'","")&amp;IF(Y11&lt;&gt;"",", growth: "&amp;Y11&amp;"","")&amp;IF(Z11&lt;&gt;"",", cost: '"&amp;Z11&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD11, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE11&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG11&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI11&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK11&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL11, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM11&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM11, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB11="○",", sealable: true","")&amp;IF(AC11="○",", removable: true","")&amp;IF(AA11="○",", lie: true","")&amp;"}")</f>
         <v>, '18-mizuki-o-s-3': {megami: 'mizuki', name: '大手楯無門', nameEn: 'Ōte Gate "Tatenashi"', nameZh: '大手楯无门', nameZhG1: '大手楯无门', nameKo: '대수순무문', ruby: 'おおてたてなしもん', rubyEn: '', baseType: 'special', type: 'action', cost: '3', text: '終端\n追加札の「闘神」と手札のカード1枚を選び、それらを兵舎に徴兵済で置く。徴兵を1回行う。\n【使用済】あなたが兵舎から使用した《攻撃》カードによる《攻撃》は+1/+0となる。あなたが兵舎から使用した《対応》カードは終端を失う。', textZh: '终端\n将你的1张手牌和追加牌处的『斗神』以已征兵的状态置入兵营。', textZhG1: '终端\n将你的1张手牌与追加牌中的『斗神』以已征兵状态置于兵舍。', textKo: '종단\n당신의 손패 1장과 추가패의 「투신」을 병영에 징집 상태로 둔다.', textEn: 'Terminal\n\nPut your set aside "Divinity of War" and a card from your hand into your Barracks, conscripted.'}</v>
       </c>
-      <c r="AT11" s="35" t="str">
+      <c r="AT11" s="34" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    /** 《"&amp;$E11&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A11, 3, 1)="-", RIGHT($A11,LEN($A11)-3), $A11)), "-", "_")&amp;": TCardId = '"&amp;$A11&amp;"';", "")</f>
-        <v>    /** 《大手楯無門》 */ export const MIZUKI_O_S_3: TCardId = '18-mizuki-o-s-3';</v>
-      </c>
-      <c r="AU11" s="33" t="str">
+        <v>/** 《大手楯無門》 */ export const MIZUKI_O_S_3: TCardId = '18-mizuki-o-s-3';</v>
+      </c>
+      <c r="AU11" s="32" t="str">
         <f aca="false">IF($A11&lt;&gt;"", "    | '"&amp;$A11&amp;"'", "")</f>
-        <v>    | '18-mizuki-o-s-3'</v>
+        <v>| '18-mizuki-o-s-3'</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22418,17 +22366,17 @@
       <c r="F12" s="17" t="s">
         <v>587</v>
       </c>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="H12" s="82" t="s">
+      <c r="H12" s="54" t="s">
         <v>586</v>
       </c>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84" t="s">
+      <c r="I12" s="18"/>
+      <c r="J12" s="77" t="s">
         <v>589</v>
       </c>
-      <c r="K12" s="85" t="s">
+      <c r="K12" s="17" t="s">
         <v>590</v>
       </c>
       <c r="L12" s="17"/>
@@ -22450,329 +22398,329 @@
       <c r="V12" s="17" t="s">
         <v>591</v>
       </c>
-      <c r="W12" s="26"/>
+      <c r="W12" s="25"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="86" t="s">
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="78" t="s">
         <v>592</v>
       </c>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="87" t="s">
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="79" t="s">
         <v>593</v>
       </c>
       <c r="AG12" s="20"/>
-      <c r="AH12" s="63" t="s">
+      <c r="AH12" s="59" t="s">
         <v>594</v>
       </c>
       <c r="AI12" s="20"/>
-      <c r="AJ12" s="86" t="s">
+      <c r="AJ12" s="78" t="s">
         <v>595</v>
       </c>
       <c r="AK12" s="20"/>
-      <c r="AL12" s="86" t="s">
+      <c r="AL12" s="78" t="s">
         <v>596</v>
       </c>
       <c r="AM12" s="20"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="33" t="str">
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="32" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    | '"&amp;$A12&amp;"'", "")</f>
-        <v>    | '20-kanawe-o-n-2'</v>
-      </c>
-      <c r="AS12" s="34" t="str">
+        <v>| '20-kanawe-o-n-2'</v>
+      </c>
+      <c r="AS12" s="33" t="str">
         <f aca="false">IF(A12="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A12&amp;"': {megami: '"&amp;B12&amp;"'"&amp;IF(C12&lt;&gt;"",", anotherID: '"&amp;C12&amp;"', replace: '"&amp;D12&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E12,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K12,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G12,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H12,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J12,"'","\'")&amp;"', ruby: '"&amp;F12&amp;"', rubyEn: '"&amp;L12&amp;IF(I12&lt;&gt;"", "', rubyZh: '"&amp;I12, "")&amp;"', baseType: '"&amp;VLOOKUP(M12,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N12="○",", extra: true","")&amp;IF(O12&lt;&gt;"",", extraFrom: '"&amp;O12&amp;"'","")&amp;IF(P12&lt;&gt;"",", exchangableTo: '"&amp;P12&amp;"'","")&amp;IF(Q12="○",", poison: true","")&amp;IF(R12&lt;&gt;"", ", type: '"&amp;VLOOKUP(R12,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S12&lt;&gt;"",", subType: '"&amp;VLOOKUP(S12,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T12&lt;&gt;"",", range: '"&amp;T12&amp;"'","")&amp;IF(V12&lt;&gt;"",", damage: '"&amp;V12&amp;"'","")&amp;IF(X12&lt;&gt;"",", capacity: '"&amp;X12&amp;"'","")&amp;IF(Y12&lt;&gt;"",", growth: "&amp;Y12&amp;"","")&amp;IF(Z12&lt;&gt;"",", cost: '"&amp;Z12&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD12, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE12&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG12&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI12&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK12&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL12, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM12&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM12, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB12="○",", sealable: true","")&amp;IF(AC12="○",", removable: true","")&amp;IF(AA12="○",", lie: true","")&amp;"}")</f>
         <v>, '20-kanawe-o-n-2': {megami: 'kanawe', name: '脚本化', nameEn: 'Composition', nameZh: '剧本化', nameZhG1: '脚本化', nameKo: '각본화', ruby: 'きゃくほんか', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-8', damage: '0/0', text: '【攻撃後】追加札から構想カードを1枚準備してもよい。\n【常時】あなたの終了フェイズにこのカードを捨て札から山札の底に置いてもよい。そうした場合、相手は集中力を1得る。', textZh: '【攻击后】你可以从追加牌区的构想牌中准备1张构想。\n【常时】在你的结束阶段你可以将此牌从弃牌放到牌库底。', textZhG1: '【攻击后】你可以从追加区准备1张构想牌。\n【常时】你的结束阶段开始时，你可以将弃牌区中的此牌置于牌库底。', textKo: '【공격후】추가패에서 구상 카드를 1장 준비해도 좋다.\n【상시】당신의 종료 페이즈에 이 카드가 버림패에 있다면 패산의 아래에 두어도 좋다.あなたの終了フェイズにこのカードを捨て札から山札の底に置いてもよい。', textEn: 'After Attack: You may prepare one of your set aside Plot cards.\n\nForced: At the end of your turn, you may move this card from your played pile to the bottom of your deck.'}</v>
       </c>
-      <c r="AT12" s="35" t="str">
+      <c r="AT12" s="34" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    /** 《"&amp;$E12&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A12, 3, 1)="-", RIGHT($A12,LEN($A12)-3), $A12)), "-", "_")&amp;": TCardId = '"&amp;$A12&amp;"';", "")</f>
-        <v>    /** 《脚本化》 */ export const KANAWE_O_N_2: TCardId = '20-kanawe-o-n-2';</v>
-      </c>
-      <c r="AU12" s="33" t="str">
+        <v>/** 《脚本化》 */ export const KANAWE_O_N_2: TCardId = '20-kanawe-o-n-2';</v>
+      </c>
+      <c r="AU12" s="32" t="str">
         <f aca="false">IF($A12&lt;&gt;"", "    | '"&amp;$A12&amp;"'", "")</f>
-        <v>    | '20-kanawe-o-n-2'</v>
+        <v>| '20-kanawe-o-n-2'</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="42.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="54" t="s">
         <v>597</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54" t="s">
         <v>598</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="54" t="s">
         <v>599</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="G13" s="55" t="s">
         <v>600</v>
       </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="56" t="s">
         <v>601</v>
       </c>
-      <c r="I13" s="60"/>
-      <c r="J13" s="59" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="56" t="s">
         <v>602</v>
       </c>
-      <c r="K13" s="61" t="s">
+      <c r="K13" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57" t="s">
+      <c r="L13" s="54"/>
+      <c r="M13" s="54" t="s">
         <v>459</v>
       </c>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57" t="s">
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54" t="s">
         <v>498</v>
       </c>
-      <c r="S13" s="57" t="s">
+      <c r="S13" s="54" t="s">
         <v>540</v>
       </c>
-      <c r="T13" s="57" t="s">
+      <c r="T13" s="54" t="s">
         <v>604</v>
       </c>
-      <c r="U13" s="62"/>
-      <c r="V13" s="57" t="s">
+      <c r="U13" s="58"/>
+      <c r="V13" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="W13" s="26"/>
+      <c r="W13" s="25"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="88" t="s">
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="64" t="s">
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="60" t="s">
         <v>606</v>
       </c>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="65" t="s">
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="61" t="s">
         <v>607</v>
       </c>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="66" t="s">
+      <c r="AI13" s="59"/>
+      <c r="AJ13" s="62" t="s">
         <v>608</v>
       </c>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="67" t="s">
+      <c r="AK13" s="59"/>
+      <c r="AL13" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="26"/>
-      <c r="AO13" s="26"/>
-      <c r="AP13" s="33" t="str">
+      <c r="AM13" s="28"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="32" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    | '"&amp;$A13&amp;"'", "")</f>
-        <v>    | '21-kamuwi-o-n-4'</v>
-      </c>
-      <c r="AS13" s="34" t="str">
+        <v>| '21-kamuwi-o-n-4'</v>
+      </c>
+      <c r="AS13" s="33" t="str">
         <f aca="false">IF(A13="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A13&amp;"': {megami: '"&amp;B13&amp;"'"&amp;IF(C13&lt;&gt;"",", anotherID: '"&amp;C13&amp;"', replace: '"&amp;D13&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E13,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K13,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G13,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H13,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J13,"'","\'")&amp;"', ruby: '"&amp;F13&amp;"', rubyEn: '"&amp;L13&amp;IF(I13&lt;&gt;"", "', rubyZh: '"&amp;I13, "")&amp;"', baseType: '"&amp;VLOOKUP(M13,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N13="○",", extra: true","")&amp;IF(O13&lt;&gt;"",", extraFrom: '"&amp;O13&amp;"'","")&amp;IF(P13&lt;&gt;"",", exchangableTo: '"&amp;P13&amp;"'","")&amp;IF(Q13="○",", poison: true","")&amp;IF(R13&lt;&gt;"", ", type: '"&amp;VLOOKUP(R13,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S13&lt;&gt;"",", subType: '"&amp;VLOOKUP(S13,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T13&lt;&gt;"",", range: '"&amp;T13&amp;"'","")&amp;IF(V13&lt;&gt;"",", damage: '"&amp;V13&amp;"'","")&amp;IF(X13&lt;&gt;"",", capacity: '"&amp;X13&amp;"'","")&amp;IF(Y13&lt;&gt;"",", growth: "&amp;Y13&amp;"","")&amp;IF(Z13&lt;&gt;"",", cost: '"&amp;Z13&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD13, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE13&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG13&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI13&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK13&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL13, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM13&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM13, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB13="○",", sealable: true","")&amp;IF(AC13="○",", removable: true","")&amp;IF(AA13="○",", lie: true","")&amp;"}")</f>
-        <v>, '21-kamuwi-o-n-4': {megami: 'kamuwi', name: '斬り払い', nameEn: 'Sever', nameZh: '斩除', nameZhG1: '格杀', nameKo: '베어내기', ruby: 'きりはらい', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-4', damage: '1/1', text: '【常時】このカードは対応でしか使用できない。\n---\n(+2) 【攻撃後】対応した《攻撃》のダメージを打ち消す。その《攻撃》が《全力》または切札であるなら禁忌ゲージを2上げる。', textZh: '(+1) 【攻击后】打消被对应的《攻击》。该《攻击》为王牌的话，禁忌槽上升2。', textZhG1: '禁忌+1～【攻击后】打消被对应的《攻击》。若该《攻击》为王牌，则禁忌槽的值增加2。', textKo: '(+1) 【공격후】대응한 《공격》을 무효화한다. 그 《공격》이 비장패라면, 금기 게이지를 +2한다.', textEn: '(+1): After Attack: Cancel the attack you played this card as a Reaction to. If that attack was Special, increase your Taboo gauge by 2.'}</v>
-      </c>
-      <c r="AT13" s="35" t="str">
+        <v>, '21-kamuwi-o-n-4': {megami: 'kamuwi', name: '斬り払い', nameEn: 'Sever', nameZh: '斩除', nameZhG1: '格杀', nameKo: '베어내기', ruby: 'きりはらい', rubyEn: '', baseType: 'normal', type: 'attack', subType: 'reaction', range: '1-4', damage: '1/1', text: '【常時】このカードは対応でしか使用できない。\n----\n(+2) 【攻撃後】対応した《攻撃》のダメージを打ち消す。その《攻撃》が《全力》または切札であるなら禁忌ゲージを2上げる。', textZh: '(+1) 【攻击后】打消被对应的《攻击》。该《攻击》为王牌的话，禁忌槽上升2。', textZhG1: '禁忌+1～【攻击后】打消被对应的《攻击》。若该《攻击》为王牌，则禁忌槽的值增加2。', textKo: '(+1) 【공격후】대응한 《공격》을 무효화한다. 그 《공격》이 비장패라면, 금기 게이지를 +2한다.', textEn: '(+1): After Attack: Cancel the attack you played this card as a Reaction to. If that attack was Special, increase your Taboo gauge by 2.'}</v>
+      </c>
+      <c r="AT13" s="34" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    /** 《"&amp;$E13&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A13, 3, 1)="-", RIGHT($A13,LEN($A13)-3), $A13)), "-", "_")&amp;": TCardId = '"&amp;$A13&amp;"';", "")</f>
-        <v>    /** 《斬り払い》 */ export const KAMUWI_O_N_4: TCardId = '21-kamuwi-o-n-4';</v>
-      </c>
-      <c r="AU13" s="33" t="str">
+        <v>/** 《斬り払い》 */ export const KAMUWI_O_N_4: TCardId = '21-kamuwi-o-n-4';</v>
+      </c>
+      <c r="AU13" s="32" t="str">
         <f aca="false">IF($A13&lt;&gt;"", "    | '"&amp;$A13&amp;"'", "")</f>
-        <v>    | '21-kamuwi-o-n-4'</v>
+        <v>| '21-kamuwi-o-n-4'</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="54" t="s">
         <v>610</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54" t="s">
         <v>611</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="54" t="s">
         <v>612</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="I14" s="60"/>
-      <c r="J14" s="59" t="s">
+      <c r="I14" s="55"/>
+      <c r="J14" s="56" t="s">
         <v>613</v>
       </c>
-      <c r="K14" s="61" t="s">
+      <c r="K14" s="57" t="s">
         <v>614</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57" t="s">
+      <c r="L14" s="54"/>
+      <c r="M14" s="54" t="s">
         <v>552</v>
       </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57" t="s">
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54" t="s">
         <v>485</v>
       </c>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57" t="s">
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54" t="s">
         <v>527</v>
       </c>
       <c r="AA14" s="2"/>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27"/>
-      <c r="AD14" s="88" t="s">
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="80" t="s">
         <v>615</v>
       </c>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="64" t="s">
+      <c r="AE14" s="59"/>
+      <c r="AF14" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="AG14" s="63"/>
-      <c r="AH14" s="65" t="s">
+      <c r="AG14" s="59"/>
+      <c r="AH14" s="61" t="s">
         <v>617</v>
       </c>
-      <c r="AI14" s="63"/>
-      <c r="AJ14" s="66" t="s">
+      <c r="AI14" s="59"/>
+      <c r="AJ14" s="62" t="s">
         <v>618</v>
       </c>
-      <c r="AK14" s="63"/>
-      <c r="AL14" s="67" t="s">
+      <c r="AK14" s="59"/>
+      <c r="AL14" s="63" t="s">
         <v>619</v>
       </c>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="33" t="str">
+      <c r="AM14" s="28"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="32" t="str">
         <f aca="false">IF($A14&lt;&gt;"", "    | '"&amp;$A14&amp;"'", "")</f>
-        <v>    | '21-kamuwi-o-s-1'</v>
-      </c>
-      <c r="AS14" s="34" t="str">
+        <v>| '21-kamuwi-o-s-1'</v>
+      </c>
+      <c r="AS14" s="33" t="str">
         <f aca="false">IF(A14="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A14&amp;"': {megami: '"&amp;B14&amp;"'"&amp;IF(C14&lt;&gt;"",", anotherID: '"&amp;C14&amp;"', replace: '"&amp;D14&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E14,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K14,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G14,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H14,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J14,"'","\'")&amp;"', ruby: '"&amp;F14&amp;"', rubyEn: '"&amp;L14&amp;IF(I14&lt;&gt;"", "', rubyZh: '"&amp;I14, "")&amp;"', baseType: '"&amp;VLOOKUP(M14,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N14="○",", extra: true","")&amp;IF(O14&lt;&gt;"",", extraFrom: '"&amp;O14&amp;"'","")&amp;IF(P14&lt;&gt;"",", exchangableTo: '"&amp;P14&amp;"'","")&amp;IF(Q14="○",", poison: true","")&amp;IF(R14&lt;&gt;"", ", type: '"&amp;VLOOKUP(R14,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S14&lt;&gt;"",", subType: '"&amp;VLOOKUP(S14,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T14&lt;&gt;"",", range: '"&amp;T14&amp;"'","")&amp;IF(V14&lt;&gt;"",", damage: '"&amp;V14&amp;"'","")&amp;IF(X14&lt;&gt;"",", capacity: '"&amp;X14&amp;"'","")&amp;IF(Y14&lt;&gt;"",", growth: "&amp;Y14&amp;"","")&amp;IF(Z14&lt;&gt;"",", cost: '"&amp;Z14&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD14, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE14&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG14&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI14&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK14&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL14, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM14&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM14, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB14="○",", sealable: true","")&amp;IF(AC14="○",", removable: true","")&amp;IF(AA14="○",", lie: true","")&amp;"}")</f>
         <v>, '21-kamuwi-o-s-1': {megami: 'kamuwi', name: '灯', nameEn: 'Kindle', nameZh: '灯', nameZhG1: '灯', nameKo: '등불', ruby: 'ともしび', rubyEn: '', baseType: 'special', type: 'action', cost: '5', text: '(+3) あなたのフレアにある桜花結晶全てをダストに送り、あなたのライフに1ダメージを与える。\n追加札から「暁」を未使用で得る。', textZh: '(+2) 若自气的樱花结晶数大于等于2，则保留其中1个，其余移至虚。\n从追加牌区以未使用的状态获得『晓』。', textZhG1: '禁忌+2～若自气中樱花结晶的数目大于等于2，则保留其中1个樱花结晶，其余移至虚。从追加牌中将『晓』以未使用状态加入王牌。', textKo: '(+2) 당신의 플레어가 1 이하가 될 때 까지 벛꽃결정을 더스트로 보낸다,\n추가패에서 「새벽」을 미사용 상태로 얻는다.', textEn: '(+2): If there are 2 or more Sakura tokens on your Flare, move all but 1 of them to Shadow. Add your set aside "Daybreak" to your Special cards, face-down.'}</v>
       </c>
-      <c r="AT14" s="35" t="str">
+      <c r="AT14" s="34" t="str">
         <f aca="false">IF($A14&lt;&gt;"", "    /** 《"&amp;$E14&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A14, 3, 1)="-", RIGHT($A14,LEN($A14)-3), $A14)), "-", "_")&amp;": TCardId = '"&amp;$A14&amp;"';", "")</f>
-        <v>    /** 《灯》 */ export const KAMUWI_O_S_1: TCardId = '21-kamuwi-o-s-1';</v>
-      </c>
-      <c r="AU14" s="33" t="str">
+        <v>/** 《灯》 */ export const KAMUWI_O_S_1: TCardId = '21-kamuwi-o-s-1';</v>
+      </c>
+      <c r="AU14" s="32" t="str">
         <f aca="false">IF($A14&lt;&gt;"", "    | '"&amp;$A14&amp;"'", "")</f>
-        <v>    | '21-kamuwi-o-s-1'</v>
+        <v>| '21-kamuwi-o-s-1'</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="54" t="s">
         <v>620</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="54" t="s">
         <v>622</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="55" t="s">
         <v>621</v>
       </c>
-      <c r="H15" s="59" t="s">
+      <c r="H15" s="56" t="s">
         <v>621</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="59" t="s">
+      <c r="I15" s="55"/>
+      <c r="J15" s="56" t="s">
         <v>623</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57" t="s">
+      <c r="L15" s="54"/>
+      <c r="M15" s="54" t="s">
         <v>552</v>
       </c>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57" t="s">
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54" t="s">
         <v>460</v>
       </c>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="57" t="s">
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="54" t="s">
         <v>625</v>
       </c>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57" t="s">
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54" t="s">
         <v>579</v>
       </c>
       <c r="AA15" s="2"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="63" t="s">
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="59" t="s">
         <v>626</v>
       </c>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="64" t="s">
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="60" t="s">
         <v>627</v>
       </c>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="65" t="s">
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="61" t="s">
         <v>628</v>
       </c>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="66" t="s">
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="67" t="s">
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="63" t="s">
         <v>630</v>
       </c>
-      <c r="AM15" s="29"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="33" t="str">
+      <c r="AM15" s="28"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="32" t="str">
         <f aca="false">IF($A15&lt;&gt;"", "    | '"&amp;$A15&amp;"'", "")</f>
-        <v>    | '21-kamuwi-o-s-2'</v>
-      </c>
-      <c r="AS15" s="34" t="str">
+        <v>| '21-kamuwi-o-s-2'</v>
+      </c>
+      <c r="AS15" s="33" t="str">
         <f aca="false">IF(A15="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A15&amp;"': {megami: '"&amp;B15&amp;"'"&amp;IF(C15&lt;&gt;"",", anotherID: '"&amp;C15&amp;"', replace: '"&amp;D15&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E15,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K15,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G15,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H15,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J15,"'","\'")&amp;"', ruby: '"&amp;F15&amp;"', rubyEn: '"&amp;L15&amp;IF(I15&lt;&gt;"", "', rubyZh: '"&amp;I15, "")&amp;"', baseType: '"&amp;VLOOKUP(M15,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N15="○",", extra: true","")&amp;IF(O15&lt;&gt;"",", extraFrom: '"&amp;O15&amp;"'","")&amp;IF(P15&lt;&gt;"",", exchangableTo: '"&amp;P15&amp;"'","")&amp;IF(Q15="○",", poison: true","")&amp;IF(R15&lt;&gt;"", ", type: '"&amp;VLOOKUP(R15,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S15&lt;&gt;"",", subType: '"&amp;VLOOKUP(S15,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T15&lt;&gt;"",", range: '"&amp;T15&amp;"'","")&amp;IF(V15&lt;&gt;"",", damage: '"&amp;V15&amp;"'","")&amp;IF(X15&lt;&gt;"",", capacity: '"&amp;X15&amp;"'","")&amp;IF(Y15&lt;&gt;"",", growth: "&amp;Y15&amp;"","")&amp;IF(Z15&lt;&gt;"",", cost: '"&amp;Z15&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD15, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE15&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG15&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI15&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK15&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL15, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM15&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM15, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB15="○",", sealable: true","")&amp;IF(AC15="○",", removable: true","")&amp;IF(AA15="○",", lie: true","")&amp;"}")</f>
         <v>, '21-kamuwi-o-s-2': {megami: 'kamuwi', name: '阡', nameEn: 'Gravewalk', nameZh: '阡', nameZhG1: '阡', nameKo: '무덤길', ruby: 'はかみち', rubyEn: '', baseType: 'special', type: 'enhance', capacity: '4', cost: '3', text: '(+2) 【展開時】攻撃『適正距離3-4、3/3、対応不可（通常札）』を行い、あなたのライフに1ダメージを与える。\n----\n【常時】このカードの上に桜花結晶が置かれているならば、あなたは勝利できない。', textZh: '(+1) 【展开时】进行一次“攻击距离3-4、伤害3/3、不可被对应（通常牌）”的攻击。\n----\n【常时】此牌上有樱花结晶放置时，你无法胜利。', textZhG1: '禁忌+1～【展开时】进行一次“攻击距离3-4 伤害3/3 不可被对应（通常牌）”的攻击。\n----\n【常时】若此牌上置有樱花结晶，则你不能因敌命中樱花结晶的数目降至0而赢得本局游戏。', textKo: '(+1) 【전개시】공격 『적정거리3-4、3/3, 대응불가(통상패)』를 수행한다.\n----\n【상시】이 카드 위에 벚꽃결정이 올려져 있다면, 당신은 승리할 수 없다.', textEn: '(+2): Initialize: You attack with "Range: 3-4, Damage: 3/3, No Reactions (Normal)".\n----\nForced: As long as there are Sakura tokens on this card, you cannot win the game.'}</v>
       </c>
-      <c r="AT15" s="35" t="str">
+      <c r="AT15" s="34" t="str">
         <f aca="false">IF($A15&lt;&gt;"", "    /** 《"&amp;$E15&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A15, 3, 1)="-", RIGHT($A15,LEN($A15)-3), $A15)), "-", "_")&amp;": TCardId = '"&amp;$A15&amp;"';", "")</f>
-        <v>    /** 《阡》 */ export const KAMUWI_O_S_2: TCardId = '21-kamuwi-o-s-2';</v>
-      </c>
-      <c r="AU15" s="33" t="str">
+        <v>/** 《阡》 */ export const KAMUWI_O_S_2: TCardId = '21-kamuwi-o-s-2';</v>
+      </c>
+      <c r="AU15" s="32" t="str">
         <f aca="false">IF($A15&lt;&gt;"", "    | '"&amp;$A15&amp;"'", "")</f>
-        <v>    | '21-kamuwi-o-s-2'</v>
+        <v>| '21-kamuwi-o-s-2'</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22784,9 +22732,9 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="90"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="81"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -22796,40 +22744,40 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="26"/>
+      <c r="U16" s="25"/>
       <c r="V16" s="2"/>
-      <c r="W16" s="26"/>
+      <c r="W16" s="25"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="29"/>
-      <c r="AI16" s="27"/>
-      <c r="AJ16" s="29"/>
-      <c r="AK16" s="29"/>
-      <c r="AL16" s="29"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="33" t="str">
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="28"/>
+      <c r="AM16" s="28"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="32" t="str">
         <f aca="false">IF($A16&lt;&gt;"", "    | '"&amp;$A16&amp;"'", "")</f>
         <v/>
       </c>
-      <c r="AS16" s="34" t="str">
+      <c r="AS16" s="33" t="str">
         <f aca="false">IF(A16="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A16&amp;"': {megami: '"&amp;B16&amp;"'"&amp;IF(C16&lt;&gt;"",", anotherID: '"&amp;C16&amp;"', replace: '"&amp;D16&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E16,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K16,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G16,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H16,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J16,"'","\'")&amp;"', ruby: '"&amp;F16&amp;"', rubyEn: '"&amp;L16&amp;IF(I16&lt;&gt;"", "', rubyZh: '"&amp;I16, "")&amp;"', baseType: '"&amp;VLOOKUP(M16,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N16="○",", extra: true","")&amp;IF(O16&lt;&gt;"",", extraFrom: '"&amp;O16&amp;"'","")&amp;IF(P16&lt;&gt;"",", exchangableTo: '"&amp;P16&amp;"'","")&amp;IF(Q16="○",", poison: true","")&amp;IF(R16&lt;&gt;"", ", type: '"&amp;VLOOKUP(R16,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S16&lt;&gt;"",", subType: '"&amp;VLOOKUP(S16,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T16&lt;&gt;"",", range: '"&amp;T16&amp;"'","")&amp;IF(V16&lt;&gt;"",", damage: '"&amp;V16&amp;"'","")&amp;IF(X16&lt;&gt;"",", capacity: '"&amp;X16&amp;"'","")&amp;IF(Y16&lt;&gt;"",", growth: "&amp;Y16&amp;"","")&amp;IF(Z16&lt;&gt;"",", cost: '"&amp;Z16&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD16, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE16&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG16&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI16&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK16&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL16, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM16&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM16, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB16="○",", sealable: true","")&amp;IF(AC16="○",", removable: true","")&amp;IF(AA16="○",", lie: true","")&amp;"}")</f>
         <v/>
       </c>
-      <c r="AT16" s="35" t="str">
+      <c r="AT16" s="34" t="str">
         <f aca="false">IF($A16&lt;&gt;"", "    /** 《"&amp;$E16&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A16, 3, 1)="-", RIGHT($A16,LEN($A16)-3), $A16)), "-", "_")&amp;": TCardId = '"&amp;$A16&amp;"';", "")</f>
         <v/>
       </c>
-      <c r="AU16" s="33" t="str">
+      <c r="AU16" s="32" t="str">
         <f aca="false">IF($A16&lt;&gt;"", "    | '"&amp;$A16&amp;"'", "")</f>
         <v/>
       </c>
@@ -22838,2422 +22786,2422 @@
       <c r="A17" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="91"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="85"/>
-      <c r="Y17" s="85"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="85"/>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="92"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="94"/>
-      <c r="AJ17" s="92"/>
-      <c r="AK17" s="94"/>
-      <c r="AL17" s="92"/>
-      <c r="AM17" s="96"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="59"/>
+      <c r="AI17" s="20"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="20"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="26"/>
       <c r="AN17" s="19"/>
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
-      <c r="AS17" s="34" t="e">
+      <c r="AS17" s="33" t="e">
         <f aca="false">IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;"}")</f>
         <v>#N/A</v>
       </c>
-      <c r="AT17" s="35" t="str">
+      <c r="AT17" s="34" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
-        <v>    /** 《問答》 */ export const YURINA_A2_N_3: TCardId = '01-yurina-A2-n-3';</v>
-      </c>
-      <c r="AU17" s="33" t="str">
+        <v>/** 《問答》 */ export const YURINA_A2_N_3: TCardId = '01-yurina-A2-n-3';</v>
+      </c>
+      <c r="AU17" s="32" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    | '"&amp;$A17&amp;"'", "")</f>
-        <v>    | '01-yurina-A2-n-3'</v>
+        <v>| '01-yurina-A2-n-3'</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="91"/>
-      <c r="X18" s="85"/>
-      <c r="Y18" s="85"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="85"/>
-      <c r="AB18" s="85"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="92"/>
-      <c r="AE18" s="92"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="94"/>
-      <c r="AJ18" s="92"/>
-      <c r="AK18" s="94"/>
-      <c r="AL18" s="92"/>
-      <c r="AM18" s="96"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="78"/>
+      <c r="AE18" s="78"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="20"/>
+      <c r="AJ18" s="78"/>
+      <c r="AK18" s="20"/>
+      <c r="AL18" s="78"/>
+      <c r="AM18" s="26"/>
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
-      <c r="AS18" s="34" t="e">
+      <c r="AS18" s="33" t="e">
         <f aca="false">IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;"}")</f>
         <v>#N/A</v>
       </c>
-      <c r="AT18" s="35" t="str">
+      <c r="AT18" s="34" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    /** 《"&amp;$E18&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A18, 3, 1)="-", RIGHT($A18,LEN($A18)-3), $A18)), "-", "_")&amp;": TCardId = '"&amp;$A18&amp;"';", "")</f>
-        <v>    /** 《阿吽》 */ export const YURINA_A2_N_7: TCardId = '01-yurina-A2-n-7';</v>
-      </c>
-      <c r="AU18" s="33" t="str">
+        <v>/** 《阿吽》 */ export const YURINA_A2_N_7: TCardId = '01-yurina-A2-n-7';</v>
+      </c>
+      <c r="AU18" s="32" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    | '"&amp;$A18&amp;"'", "")</f>
-        <v>    | '01-yurina-A2-n-7'</v>
+        <v>| '01-yurina-A2-n-7'</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="91"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="91"/>
-      <c r="X19" s="85"/>
-      <c r="Y19" s="85"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="85"/>
-      <c r="AB19" s="85"/>
-      <c r="AC19" s="85"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="94"/>
-      <c r="AJ19" s="92"/>
-      <c r="AK19" s="94"/>
-      <c r="AL19" s="92"/>
-      <c r="AM19" s="96"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="82"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="78"/>
+      <c r="AE19" s="78"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="20"/>
+      <c r="AJ19" s="78"/>
+      <c r="AK19" s="20"/>
+      <c r="AL19" s="78"/>
+      <c r="AM19" s="26"/>
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
-      <c r="AS19" s="34" t="e">
+      <c r="AS19" s="33" t="e">
         <f aca="false">IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;"}")</f>
         <v>#N/A</v>
       </c>
-      <c r="AT19" s="35" t="str">
+      <c r="AT19" s="34" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    /** 《"&amp;$E19&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A19, 3, 1)="-", RIGHT($A19,LEN($A19)-3), $A19)), "-", "_")&amp;": TCardId = '"&amp;$A19&amp;"';", "")</f>
-        <v>    /** 《神座渡》 */ export const YURINA_A2_S_1: TCardId = '01-yurina-A2-s-1';</v>
-      </c>
-      <c r="AU19" s="33" t="str">
+        <v>/** 《神座渡》 */ export const YURINA_A2_S_1: TCardId = '01-yurina-A2-s-1';</v>
+      </c>
+      <c r="AU19" s="32" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    | '"&amp;$A19&amp;"'", "")</f>
-        <v>    | '01-yurina-A2-s-1'</v>
+        <v>| '01-yurina-A2-s-1'</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="97"/>
+      <c r="I20" s="84"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="97"/>
+      <c r="I21" s="84"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="97"/>
+      <c r="I22" s="84"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="97"/>
+      <c r="I23" s="84"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="97"/>
+      <c r="I24" s="84"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="97"/>
+      <c r="I25" s="84"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="97"/>
+      <c r="I26" s="84"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="97"/>
+      <c r="I27" s="84"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="97"/>
+      <c r="I28" s="84"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="97"/>
+      <c r="I29" s="84"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="97"/>
+      <c r="I30" s="84"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="97"/>
+      <c r="I31" s="84"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="97"/>
+      <c r="I32" s="84"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="97"/>
+      <c r="I33" s="84"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="97"/>
+      <c r="I34" s="84"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="97"/>
+      <c r="I35" s="84"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="97"/>
+      <c r="I36" s="84"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="97"/>
+      <c r="I37" s="84"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="97"/>
+      <c r="I38" s="84"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="97"/>
+      <c r="I39" s="84"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="97"/>
+      <c r="I40" s="84"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="97"/>
+      <c r="I41" s="84"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="97"/>
+      <c r="I42" s="84"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="97"/>
+      <c r="I43" s="84"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="97"/>
+      <c r="I44" s="84"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="97"/>
+      <c r="I45" s="84"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="97"/>
+      <c r="I46" s="84"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="97"/>
+      <c r="I47" s="84"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="97"/>
+      <c r="I48" s="84"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="97"/>
+      <c r="I49" s="84"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="97"/>
+      <c r="I50" s="84"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="97"/>
+      <c r="I51" s="84"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="97"/>
+      <c r="I52" s="84"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="97"/>
+      <c r="I53" s="84"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="97"/>
+      <c r="I54" s="84"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="97"/>
+      <c r="I55" s="84"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="97"/>
+      <c r="I56" s="84"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="97"/>
+      <c r="I57" s="84"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="97"/>
+      <c r="I58" s="84"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="97"/>
+      <c r="I59" s="84"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="97"/>
+      <c r="I60" s="84"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="97"/>
+      <c r="I61" s="84"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="97"/>
+      <c r="I62" s="84"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="97"/>
+      <c r="I63" s="84"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="97"/>
+      <c r="I64" s="84"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="97"/>
+      <c r="I65" s="84"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="97"/>
+      <c r="I66" s="84"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="97"/>
+      <c r="I67" s="84"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="97"/>
+      <c r="I68" s="84"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="97"/>
+      <c r="I69" s="84"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="97"/>
+      <c r="I70" s="84"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="97"/>
+      <c r="I71" s="84"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="97"/>
+      <c r="I72" s="84"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="97"/>
+      <c r="I73" s="84"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="97"/>
+      <c r="I74" s="84"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="97"/>
+      <c r="I75" s="84"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="97"/>
+      <c r="I76" s="84"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="97"/>
+      <c r="I77" s="84"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="97"/>
+      <c r="I78" s="84"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="97"/>
+      <c r="I79" s="84"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="97"/>
+      <c r="I80" s="84"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="97"/>
+      <c r="I81" s="84"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="97"/>
+      <c r="I82" s="84"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="97"/>
+      <c r="I83" s="84"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="97"/>
+      <c r="I84" s="84"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="97"/>
+      <c r="I85" s="84"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="97"/>
+      <c r="I86" s="84"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="97"/>
+      <c r="I87" s="84"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="97"/>
+      <c r="I88" s="84"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="97"/>
+      <c r="I89" s="84"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="97"/>
+      <c r="I90" s="84"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="97"/>
+      <c r="I91" s="84"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="97"/>
+      <c r="I92" s="84"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="97"/>
+      <c r="I93" s="84"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="97"/>
+      <c r="I94" s="84"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="97"/>
+      <c r="I95" s="84"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="97"/>
+      <c r="I96" s="84"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="97"/>
+      <c r="I97" s="84"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="97"/>
+      <c r="I98" s="84"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="97"/>
+      <c r="I99" s="84"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="97"/>
+      <c r="I100" s="84"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="97"/>
+      <c r="I101" s="84"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="97"/>
+      <c r="I102" s="84"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="97"/>
+      <c r="I103" s="84"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="97"/>
+      <c r="I104" s="84"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="97"/>
+      <c r="I105" s="84"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="97"/>
+      <c r="I106" s="84"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="97"/>
+      <c r="I107" s="84"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="97"/>
+      <c r="I108" s="84"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="97"/>
+      <c r="I109" s="84"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="97"/>
+      <c r="I110" s="84"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="97"/>
+      <c r="I111" s="84"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="97"/>
+      <c r="I112" s="84"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="97"/>
+      <c r="I113" s="84"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="97"/>
+      <c r="I114" s="84"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="97"/>
+      <c r="I115" s="84"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="97"/>
+      <c r="I116" s="84"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="97"/>
+      <c r="I117" s="84"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="97"/>
+      <c r="I118" s="84"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="97"/>
+      <c r="I119" s="84"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="97"/>
+      <c r="I120" s="84"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="97"/>
+      <c r="I121" s="84"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="97"/>
+      <c r="I122" s="84"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I123" s="97"/>
+      <c r="I123" s="84"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I124" s="97"/>
+      <c r="I124" s="84"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I125" s="97"/>
+      <c r="I125" s="84"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I126" s="97"/>
+      <c r="I126" s="84"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I127" s="97"/>
+      <c r="I127" s="84"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I128" s="97"/>
+      <c r="I128" s="84"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I129" s="97"/>
+      <c r="I129" s="84"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I130" s="97"/>
+      <c r="I130" s="84"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I131" s="97"/>
+      <c r="I131" s="84"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I132" s="97"/>
+      <c r="I132" s="84"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I133" s="97"/>
+      <c r="I133" s="84"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I134" s="97"/>
+      <c r="I134" s="84"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I135" s="97"/>
+      <c r="I135" s="84"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I136" s="97"/>
+      <c r="I136" s="84"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I137" s="97"/>
+      <c r="I137" s="84"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I138" s="97"/>
+      <c r="I138" s="84"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I139" s="97"/>
+      <c r="I139" s="84"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I140" s="97"/>
+      <c r="I140" s="84"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I141" s="97"/>
+      <c r="I141" s="84"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I142" s="97"/>
+      <c r="I142" s="84"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I143" s="97"/>
+      <c r="I143" s="84"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I144" s="97"/>
+      <c r="I144" s="84"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I145" s="97"/>
+      <c r="I145" s="84"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I146" s="97"/>
+      <c r="I146" s="84"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I147" s="97"/>
+      <c r="I147" s="84"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I148" s="97"/>
+      <c r="I148" s="84"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I149" s="97"/>
+      <c r="I149" s="84"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I150" s="97"/>
+      <c r="I150" s="84"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I151" s="97"/>
+      <c r="I151" s="84"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I152" s="97"/>
+      <c r="I152" s="84"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I153" s="97"/>
+      <c r="I153" s="84"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I154" s="97"/>
+      <c r="I154" s="84"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I155" s="97"/>
+      <c r="I155" s="84"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I156" s="97"/>
+      <c r="I156" s="84"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I157" s="97"/>
+      <c r="I157" s="84"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I158" s="97"/>
+      <c r="I158" s="84"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I159" s="97"/>
+      <c r="I159" s="84"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I160" s="97"/>
+      <c r="I160" s="84"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I161" s="97"/>
+      <c r="I161" s="84"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I162" s="97"/>
+      <c r="I162" s="84"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I163" s="97"/>
+      <c r="I163" s="84"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I164" s="97"/>
+      <c r="I164" s="84"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I165" s="97"/>
+      <c r="I165" s="84"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I166" s="97"/>
+      <c r="I166" s="84"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I167" s="97"/>
+      <c r="I167" s="84"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I168" s="97"/>
+      <c r="I168" s="84"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I169" s="97"/>
+      <c r="I169" s="84"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I170" s="97"/>
+      <c r="I170" s="84"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I171" s="97"/>
+      <c r="I171" s="84"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I172" s="97"/>
+      <c r="I172" s="84"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I173" s="97"/>
+      <c r="I173" s="84"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I174" s="97"/>
+      <c r="I174" s="84"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I175" s="97"/>
+      <c r="I175" s="84"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I176" s="97"/>
+      <c r="I176" s="84"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I177" s="97"/>
+      <c r="I177" s="84"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I178" s="97"/>
+      <c r="I178" s="84"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I179" s="97"/>
+      <c r="I179" s="84"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I180" s="97"/>
+      <c r="I180" s="84"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I181" s="97"/>
+      <c r="I181" s="84"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I182" s="97"/>
+      <c r="I182" s="84"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I183" s="97"/>
+      <c r="I183" s="84"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I184" s="97"/>
+      <c r="I184" s="84"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I185" s="97"/>
+      <c r="I185" s="84"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I186" s="97"/>
+      <c r="I186" s="84"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I187" s="97"/>
+      <c r="I187" s="84"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I188" s="97"/>
+      <c r="I188" s="84"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I189" s="97"/>
+      <c r="I189" s="84"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I190" s="97"/>
+      <c r="I190" s="84"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I191" s="97"/>
+      <c r="I191" s="84"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I192" s="97"/>
+      <c r="I192" s="84"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I193" s="97"/>
+      <c r="I193" s="84"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I194" s="97"/>
+      <c r="I194" s="84"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I195" s="97"/>
+      <c r="I195" s="84"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I196" s="97"/>
+      <c r="I196" s="84"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I197" s="97"/>
+      <c r="I197" s="84"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I198" s="97"/>
+      <c r="I198" s="84"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I199" s="97"/>
+      <c r="I199" s="84"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I200" s="97"/>
+      <c r="I200" s="84"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I201" s="97"/>
+      <c r="I201" s="84"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I202" s="97"/>
+      <c r="I202" s="84"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I203" s="97"/>
+      <c r="I203" s="84"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I204" s="97"/>
+      <c r="I204" s="84"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I205" s="97"/>
+      <c r="I205" s="84"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I206" s="97"/>
+      <c r="I206" s="84"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I207" s="97"/>
+      <c r="I207" s="84"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I208" s="97"/>
+      <c r="I208" s="84"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I209" s="97"/>
+      <c r="I209" s="84"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I210" s="97"/>
+      <c r="I210" s="84"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I211" s="97"/>
+      <c r="I211" s="84"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I212" s="97"/>
+      <c r="I212" s="84"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I213" s="97"/>
+      <c r="I213" s="84"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I214" s="97"/>
+      <c r="I214" s="84"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I215" s="97"/>
+      <c r="I215" s="84"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I216" s="97"/>
+      <c r="I216" s="84"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I217" s="97"/>
+      <c r="I217" s="84"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I218" s="97"/>
+      <c r="I218" s="84"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I219" s="97"/>
+      <c r="I219" s="84"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I220" s="97"/>
+      <c r="I220" s="84"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I221" s="97"/>
+      <c r="I221" s="84"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I222" s="97"/>
+      <c r="I222" s="84"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I223" s="97"/>
+      <c r="I223" s="84"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I224" s="97"/>
+      <c r="I224" s="84"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I225" s="97"/>
+      <c r="I225" s="84"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I226" s="97"/>
+      <c r="I226" s="84"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I227" s="97"/>
+      <c r="I227" s="84"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I228" s="97"/>
+      <c r="I228" s="84"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I229" s="97"/>
+      <c r="I229" s="84"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I230" s="97"/>
+      <c r="I230" s="84"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I231" s="97"/>
+      <c r="I231" s="84"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I232" s="97"/>
+      <c r="I232" s="84"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I233" s="97"/>
+      <c r="I233" s="84"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I234" s="97"/>
+      <c r="I234" s="84"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I235" s="97"/>
+      <c r="I235" s="84"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I236" s="97"/>
+      <c r="I236" s="84"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I237" s="97"/>
+      <c r="I237" s="84"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I238" s="97"/>
+      <c r="I238" s="84"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I239" s="97"/>
+      <c r="I239" s="84"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I240" s="97"/>
+      <c r="I240" s="84"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I241" s="97"/>
+      <c r="I241" s="84"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I242" s="97"/>
+      <c r="I242" s="84"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I243" s="97"/>
+      <c r="I243" s="84"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I244" s="97"/>
+      <c r="I244" s="84"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I245" s="97"/>
+      <c r="I245" s="84"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I246" s="97"/>
+      <c r="I246" s="84"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I247" s="97"/>
+      <c r="I247" s="84"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I248" s="97"/>
+      <c r="I248" s="84"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I249" s="97"/>
+      <c r="I249" s="84"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I250" s="97"/>
+      <c r="I250" s="84"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I251" s="97"/>
+      <c r="I251" s="84"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I252" s="97"/>
+      <c r="I252" s="84"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I253" s="97"/>
+      <c r="I253" s="84"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I254" s="97"/>
+      <c r="I254" s="84"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I255" s="97"/>
+      <c r="I255" s="84"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I256" s="97"/>
+      <c r="I256" s="84"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I257" s="97"/>
+      <c r="I257" s="84"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I258" s="97"/>
+      <c r="I258" s="84"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I259" s="97"/>
+      <c r="I259" s="84"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I260" s="97"/>
+      <c r="I260" s="84"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I261" s="97"/>
+      <c r="I261" s="84"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I262" s="97"/>
+      <c r="I262" s="84"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I263" s="97"/>
+      <c r="I263" s="84"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I264" s="97"/>
+      <c r="I264" s="84"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I265" s="97"/>
+      <c r="I265" s="84"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I266" s="97"/>
+      <c r="I266" s="84"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I267" s="97"/>
+      <c r="I267" s="84"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I268" s="97"/>
+      <c r="I268" s="84"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I269" s="97"/>
+      <c r="I269" s="84"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I270" s="97"/>
+      <c r="I270" s="84"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I271" s="97"/>
+      <c r="I271" s="84"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I272" s="97"/>
+      <c r="I272" s="84"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I273" s="97"/>
+      <c r="I273" s="84"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I274" s="97"/>
+      <c r="I274" s="84"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I275" s="97"/>
+      <c r="I275" s="84"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I276" s="97"/>
+      <c r="I276" s="84"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I277" s="97"/>
+      <c r="I277" s="84"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I278" s="97"/>
+      <c r="I278" s="84"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I279" s="97"/>
+      <c r="I279" s="84"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I280" s="97"/>
+      <c r="I280" s="84"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I281" s="97"/>
+      <c r="I281" s="84"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I282" s="97"/>
+      <c r="I282" s="84"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I283" s="97"/>
+      <c r="I283" s="84"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I284" s="97"/>
+      <c r="I284" s="84"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I285" s="97"/>
+      <c r="I285" s="84"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I286" s="97"/>
+      <c r="I286" s="84"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I287" s="97"/>
+      <c r="I287" s="84"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I288" s="97"/>
+      <c r="I288" s="84"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I289" s="97"/>
+      <c r="I289" s="84"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I290" s="97"/>
+      <c r="I290" s="84"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I291" s="97"/>
+      <c r="I291" s="84"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I292" s="97"/>
+      <c r="I292" s="84"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I293" s="97"/>
+      <c r="I293" s="84"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I294" s="97"/>
+      <c r="I294" s="84"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I295" s="97"/>
+      <c r="I295" s="84"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I296" s="97"/>
+      <c r="I296" s="84"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I297" s="97"/>
+      <c r="I297" s="84"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I298" s="97"/>
+      <c r="I298" s="84"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I299" s="97"/>
+      <c r="I299" s="84"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I300" s="97"/>
+      <c r="I300" s="84"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I301" s="97"/>
+      <c r="I301" s="84"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I302" s="97"/>
+      <c r="I302" s="84"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I303" s="97"/>
+      <c r="I303" s="84"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I304" s="97"/>
+      <c r="I304" s="84"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I305" s="97"/>
+      <c r="I305" s="84"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I306" s="97"/>
+      <c r="I306" s="84"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I307" s="97"/>
+      <c r="I307" s="84"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I308" s="97"/>
+      <c r="I308" s="84"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I309" s="97"/>
+      <c r="I309" s="84"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I310" s="97"/>
+      <c r="I310" s="84"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I311" s="97"/>
+      <c r="I311" s="84"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I312" s="97"/>
+      <c r="I312" s="84"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I313" s="97"/>
+      <c r="I313" s="84"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I314" s="97"/>
+      <c r="I314" s="84"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I315" s="97"/>
+      <c r="I315" s="84"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I316" s="97"/>
+      <c r="I316" s="84"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I317" s="97"/>
+      <c r="I317" s="84"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I318" s="97"/>
+      <c r="I318" s="84"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I319" s="97"/>
+      <c r="I319" s="84"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I320" s="97"/>
+      <c r="I320" s="84"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I321" s="97"/>
+      <c r="I321" s="84"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I322" s="97"/>
+      <c r="I322" s="84"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I323" s="97"/>
+      <c r="I323" s="84"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I324" s="97"/>
+      <c r="I324" s="84"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I325" s="97"/>
+      <c r="I325" s="84"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I326" s="97"/>
+      <c r="I326" s="84"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I327" s="97"/>
+      <c r="I327" s="84"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I328" s="97"/>
+      <c r="I328" s="84"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I329" s="97"/>
+      <c r="I329" s="84"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I330" s="97"/>
+      <c r="I330" s="84"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I331" s="97"/>
+      <c r="I331" s="84"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I332" s="97"/>
+      <c r="I332" s="84"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I333" s="97"/>
+      <c r="I333" s="84"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I334" s="97"/>
+      <c r="I334" s="84"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I335" s="97"/>
+      <c r="I335" s="84"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I336" s="97"/>
+      <c r="I336" s="84"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I337" s="97"/>
+      <c r="I337" s="84"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I338" s="97"/>
+      <c r="I338" s="84"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I339" s="97"/>
+      <c r="I339" s="84"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I340" s="97"/>
+      <c r="I340" s="84"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I341" s="97"/>
+      <c r="I341" s="84"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I342" s="97"/>
+      <c r="I342" s="84"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I343" s="97"/>
+      <c r="I343" s="84"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I344" s="97"/>
+      <c r="I344" s="84"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I345" s="97"/>
+      <c r="I345" s="84"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I346" s="97"/>
+      <c r="I346" s="84"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I347" s="97"/>
+      <c r="I347" s="84"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I348" s="97"/>
+      <c r="I348" s="84"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I349" s="97"/>
+      <c r="I349" s="84"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I350" s="97"/>
+      <c r="I350" s="84"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I351" s="97"/>
+      <c r="I351" s="84"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I352" s="97"/>
+      <c r="I352" s="84"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I353" s="97"/>
+      <c r="I353" s="84"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I354" s="97"/>
+      <c r="I354" s="84"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I355" s="97"/>
+      <c r="I355" s="84"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I356" s="97"/>
+      <c r="I356" s="84"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I357" s="97"/>
+      <c r="I357" s="84"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I358" s="97"/>
+      <c r="I358" s="84"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I359" s="97"/>
+      <c r="I359" s="84"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I360" s="97"/>
+      <c r="I360" s="84"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I361" s="97"/>
+      <c r="I361" s="84"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I362" s="97"/>
+      <c r="I362" s="84"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I363" s="97"/>
+      <c r="I363" s="84"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I364" s="97"/>
+      <c r="I364" s="84"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I365" s="97"/>
+      <c r="I365" s="84"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I366" s="97"/>
+      <c r="I366" s="84"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I367" s="97"/>
+      <c r="I367" s="84"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I368" s="97"/>
+      <c r="I368" s="84"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I369" s="97"/>
+      <c r="I369" s="84"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I370" s="97"/>
+      <c r="I370" s="84"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I371" s="97"/>
+      <c r="I371" s="84"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I372" s="97"/>
+      <c r="I372" s="84"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I373" s="97"/>
+      <c r="I373" s="84"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I374" s="97"/>
+      <c r="I374" s="84"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I375" s="97"/>
+      <c r="I375" s="84"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I376" s="97"/>
+      <c r="I376" s="84"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I377" s="97"/>
+      <c r="I377" s="84"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I378" s="97"/>
+      <c r="I378" s="84"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I379" s="97"/>
+      <c r="I379" s="84"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I380" s="97"/>
+      <c r="I380" s="84"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I381" s="97"/>
+      <c r="I381" s="84"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I382" s="97"/>
+      <c r="I382" s="84"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I383" s="97"/>
+      <c r="I383" s="84"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I384" s="97"/>
+      <c r="I384" s="84"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I385" s="97"/>
+      <c r="I385" s="84"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I386" s="97"/>
+      <c r="I386" s="84"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I387" s="97"/>
+      <c r="I387" s="84"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I388" s="97"/>
+      <c r="I388" s="84"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I389" s="97"/>
+      <c r="I389" s="84"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I390" s="97"/>
+      <c r="I390" s="84"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I391" s="97"/>
+      <c r="I391" s="84"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I392" s="97"/>
+      <c r="I392" s="84"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I393" s="97"/>
+      <c r="I393" s="84"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I394" s="97"/>
+      <c r="I394" s="84"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I395" s="97"/>
+      <c r="I395" s="84"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I396" s="97"/>
+      <c r="I396" s="84"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I397" s="97"/>
+      <c r="I397" s="84"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I398" s="97"/>
+      <c r="I398" s="84"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I399" s="97"/>
+      <c r="I399" s="84"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I400" s="97"/>
+      <c r="I400" s="84"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I401" s="97"/>
+      <c r="I401" s="84"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I402" s="97"/>
+      <c r="I402" s="84"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I403" s="97"/>
+      <c r="I403" s="84"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I404" s="97"/>
+      <c r="I404" s="84"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I405" s="97"/>
+      <c r="I405" s="84"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I406" s="97"/>
+      <c r="I406" s="84"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I407" s="97"/>
+      <c r="I407" s="84"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I408" s="97"/>
+      <c r="I408" s="84"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I409" s="97"/>
+      <c r="I409" s="84"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I410" s="97"/>
+      <c r="I410" s="84"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I411" s="97"/>
+      <c r="I411" s="84"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I412" s="97"/>
+      <c r="I412" s="84"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I413" s="97"/>
+      <c r="I413" s="84"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I414" s="97"/>
+      <c r="I414" s="84"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I415" s="97"/>
+      <c r="I415" s="84"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I416" s="97"/>
+      <c r="I416" s="84"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I417" s="97"/>
+      <c r="I417" s="84"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I418" s="97"/>
+      <c r="I418" s="84"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I419" s="97"/>
+      <c r="I419" s="84"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I420" s="97"/>
+      <c r="I420" s="84"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I421" s="97"/>
+      <c r="I421" s="84"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I422" s="97"/>
+      <c r="I422" s="84"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I423" s="97"/>
+      <c r="I423" s="84"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I424" s="97"/>
+      <c r="I424" s="84"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I425" s="97"/>
+      <c r="I425" s="84"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I426" s="97"/>
+      <c r="I426" s="84"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I427" s="97"/>
+      <c r="I427" s="84"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I428" s="97"/>
+      <c r="I428" s="84"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I429" s="97"/>
+      <c r="I429" s="84"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I430" s="97"/>
+      <c r="I430" s="84"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I431" s="97"/>
+      <c r="I431" s="84"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I432" s="97"/>
+      <c r="I432" s="84"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I433" s="97"/>
+      <c r="I433" s="84"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I434" s="97"/>
+      <c r="I434" s="84"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I435" s="97"/>
+      <c r="I435" s="84"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I436" s="97"/>
+      <c r="I436" s="84"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I437" s="97"/>
+      <c r="I437" s="84"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I438" s="97"/>
+      <c r="I438" s="84"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I439" s="97"/>
+      <c r="I439" s="84"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I440" s="97"/>
+      <c r="I440" s="84"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I441" s="97"/>
+      <c r="I441" s="84"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I442" s="97"/>
+      <c r="I442" s="84"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I443" s="97"/>
+      <c r="I443" s="84"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I444" s="97"/>
+      <c r="I444" s="84"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I445" s="97"/>
+      <c r="I445" s="84"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I446" s="97"/>
+      <c r="I446" s="84"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I447" s="97"/>
+      <c r="I447" s="84"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I448" s="97"/>
+      <c r="I448" s="84"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I449" s="97"/>
+      <c r="I449" s="84"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I450" s="97"/>
+      <c r="I450" s="84"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I451" s="97"/>
+      <c r="I451" s="84"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I452" s="97"/>
+      <c r="I452" s="84"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I453" s="97"/>
+      <c r="I453" s="84"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I454" s="97"/>
+      <c r="I454" s="84"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I455" s="97"/>
+      <c r="I455" s="84"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I456" s="97"/>
+      <c r="I456" s="84"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I457" s="97"/>
+      <c r="I457" s="84"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I458" s="97"/>
+      <c r="I458" s="84"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I459" s="97"/>
+      <c r="I459" s="84"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I460" s="97"/>
+      <c r="I460" s="84"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I461" s="97"/>
+      <c r="I461" s="84"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I462" s="97"/>
+      <c r="I462" s="84"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I463" s="97"/>
+      <c r="I463" s="84"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I464" s="97"/>
+      <c r="I464" s="84"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I465" s="97"/>
+      <c r="I465" s="84"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I466" s="97"/>
+      <c r="I466" s="84"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I467" s="97"/>
+      <c r="I467" s="84"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I468" s="97"/>
+      <c r="I468" s="84"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I469" s="97"/>
+      <c r="I469" s="84"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I470" s="97"/>
+      <c r="I470" s="84"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I471" s="97"/>
+      <c r="I471" s="84"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I472" s="97"/>
+      <c r="I472" s="84"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I473" s="97"/>
+      <c r="I473" s="84"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I474" s="97"/>
+      <c r="I474" s="84"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I475" s="97"/>
+      <c r="I475" s="84"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I476" s="97"/>
+      <c r="I476" s="84"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I477" s="97"/>
+      <c r="I477" s="84"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I478" s="97"/>
+      <c r="I478" s="84"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I479" s="97"/>
+      <c r="I479" s="84"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I480" s="97"/>
+      <c r="I480" s="84"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I481" s="97"/>
+      <c r="I481" s="84"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I482" s="97"/>
+      <c r="I482" s="84"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I483" s="97"/>
+      <c r="I483" s="84"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I484" s="97"/>
+      <c r="I484" s="84"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I485" s="97"/>
+      <c r="I485" s="84"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I486" s="97"/>
+      <c r="I486" s="84"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I487" s="97"/>
+      <c r="I487" s="84"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I488" s="97"/>
+      <c r="I488" s="84"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I489" s="97"/>
+      <c r="I489" s="84"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I490" s="97"/>
+      <c r="I490" s="84"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I491" s="97"/>
+      <c r="I491" s="84"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I492" s="97"/>
+      <c r="I492" s="84"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I493" s="97"/>
+      <c r="I493" s="84"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I494" s="97"/>
+      <c r="I494" s="84"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I495" s="97"/>
+      <c r="I495" s="84"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I496" s="97"/>
+      <c r="I496" s="84"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I497" s="97"/>
+      <c r="I497" s="84"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I498" s="97"/>
+      <c r="I498" s="84"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I499" s="97"/>
+      <c r="I499" s="84"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I500" s="97"/>
+      <c r="I500" s="84"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I501" s="97"/>
+      <c r="I501" s="84"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I502" s="97"/>
+      <c r="I502" s="84"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I503" s="97"/>
+      <c r="I503" s="84"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I504" s="97"/>
+      <c r="I504" s="84"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I505" s="97"/>
+      <c r="I505" s="84"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I506" s="97"/>
+      <c r="I506" s="84"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I507" s="97"/>
+      <c r="I507" s="84"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I508" s="97"/>
+      <c r="I508" s="84"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I509" s="97"/>
+      <c r="I509" s="84"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I510" s="97"/>
+      <c r="I510" s="84"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I511" s="97"/>
+      <c r="I511" s="84"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I512" s="97"/>
+      <c r="I512" s="84"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I513" s="97"/>
+      <c r="I513" s="84"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I514" s="97"/>
+      <c r="I514" s="84"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I515" s="97"/>
+      <c r="I515" s="84"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I516" s="97"/>
+      <c r="I516" s="84"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I517" s="97"/>
+      <c r="I517" s="84"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I518" s="97"/>
+      <c r="I518" s="84"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I519" s="97"/>
+      <c r="I519" s="84"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I520" s="97"/>
+      <c r="I520" s="84"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I521" s="97"/>
+      <c r="I521" s="84"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I522" s="97"/>
+      <c r="I522" s="84"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I523" s="97"/>
+      <c r="I523" s="84"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I524" s="97"/>
+      <c r="I524" s="84"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I525" s="97"/>
+      <c r="I525" s="84"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I526" s="97"/>
+      <c r="I526" s="84"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I527" s="97"/>
+      <c r="I527" s="84"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I528" s="97"/>
+      <c r="I528" s="84"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I529" s="97"/>
+      <c r="I529" s="84"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I530" s="97"/>
+      <c r="I530" s="84"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I531" s="97"/>
+      <c r="I531" s="84"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I532" s="97"/>
+      <c r="I532" s="84"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I533" s="97"/>
+      <c r="I533" s="84"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I534" s="97"/>
+      <c r="I534" s="84"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I535" s="97"/>
+      <c r="I535" s="84"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I536" s="97"/>
+      <c r="I536" s="84"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I537" s="97"/>
+      <c r="I537" s="84"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I538" s="97"/>
+      <c r="I538" s="84"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I539" s="97"/>
+      <c r="I539" s="84"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I540" s="97"/>
+      <c r="I540" s="84"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I541" s="97"/>
+      <c r="I541" s="84"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I542" s="97"/>
+      <c r="I542" s="84"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I543" s="97"/>
+      <c r="I543" s="84"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I544" s="97"/>
+      <c r="I544" s="84"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I545" s="97"/>
+      <c r="I545" s="84"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I546" s="97"/>
+      <c r="I546" s="84"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I547" s="97"/>
+      <c r="I547" s="84"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I548" s="97"/>
+      <c r="I548" s="84"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I549" s="97"/>
+      <c r="I549" s="84"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I550" s="97"/>
+      <c r="I550" s="84"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I551" s="97"/>
+      <c r="I551" s="84"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I552" s="97"/>
+      <c r="I552" s="84"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I553" s="97"/>
+      <c r="I553" s="84"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I554" s="97"/>
+      <c r="I554" s="84"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I555" s="97"/>
+      <c r="I555" s="84"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I556" s="97"/>
+      <c r="I556" s="84"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I557" s="97"/>
+      <c r="I557" s="84"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I558" s="97"/>
+      <c r="I558" s="84"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I559" s="97"/>
+      <c r="I559" s="84"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I560" s="97"/>
+      <c r="I560" s="84"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I561" s="97"/>
+      <c r="I561" s="84"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I562" s="97"/>
+      <c r="I562" s="84"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I563" s="97"/>
+      <c r="I563" s="84"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I564" s="97"/>
+      <c r="I564" s="84"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I565" s="97"/>
+      <c r="I565" s="84"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I566" s="97"/>
+      <c r="I566" s="84"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I567" s="97"/>
+      <c r="I567" s="84"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I568" s="97"/>
+      <c r="I568" s="84"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I569" s="97"/>
+      <c r="I569" s="84"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I570" s="97"/>
+      <c r="I570" s="84"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I571" s="97"/>
+      <c r="I571" s="84"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I572" s="97"/>
+      <c r="I572" s="84"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I573" s="97"/>
+      <c r="I573" s="84"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I574" s="97"/>
+      <c r="I574" s="84"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I575" s="97"/>
+      <c r="I575" s="84"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I576" s="97"/>
+      <c r="I576" s="84"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I577" s="97"/>
+      <c r="I577" s="84"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I578" s="97"/>
+      <c r="I578" s="84"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I579" s="97"/>
+      <c r="I579" s="84"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I580" s="97"/>
+      <c r="I580" s="84"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I581" s="97"/>
+      <c r="I581" s="84"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I582" s="97"/>
+      <c r="I582" s="84"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I583" s="97"/>
+      <c r="I583" s="84"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I584" s="97"/>
+      <c r="I584" s="84"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I585" s="97"/>
+      <c r="I585" s="84"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I586" s="97"/>
+      <c r="I586" s="84"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I587" s="97"/>
+      <c r="I587" s="84"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I588" s="97"/>
+      <c r="I588" s="84"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I589" s="97"/>
+      <c r="I589" s="84"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I590" s="97"/>
+      <c r="I590" s="84"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I591" s="97"/>
+      <c r="I591" s="84"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I592" s="97"/>
+      <c r="I592" s="84"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I593" s="97"/>
+      <c r="I593" s="84"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I594" s="97"/>
+      <c r="I594" s="84"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I595" s="97"/>
+      <c r="I595" s="84"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I596" s="97"/>
+      <c r="I596" s="84"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I597" s="97"/>
+      <c r="I597" s="84"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I598" s="97"/>
+      <c r="I598" s="84"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I599" s="97"/>
+      <c r="I599" s="84"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I600" s="97"/>
+      <c r="I600" s="84"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I601" s="97"/>
+      <c r="I601" s="84"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I602" s="97"/>
+      <c r="I602" s="84"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I603" s="97"/>
+      <c r="I603" s="84"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I604" s="97"/>
+      <c r="I604" s="84"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I605" s="97"/>
+      <c r="I605" s="84"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I606" s="97"/>
+      <c r="I606" s="84"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I607" s="97"/>
+      <c r="I607" s="84"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I608" s="97"/>
+      <c r="I608" s="84"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I609" s="97"/>
+      <c r="I609" s="84"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I610" s="97"/>
+      <c r="I610" s="84"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I611" s="97"/>
+      <c r="I611" s="84"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I612" s="97"/>
+      <c r="I612" s="84"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I613" s="97"/>
+      <c r="I613" s="84"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I614" s="97"/>
+      <c r="I614" s="84"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I615" s="97"/>
+      <c r="I615" s="84"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I616" s="97"/>
+      <c r="I616" s="84"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I617" s="97"/>
+      <c r="I617" s="84"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I618" s="97"/>
+      <c r="I618" s="84"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I619" s="97"/>
+      <c r="I619" s="84"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I620" s="97"/>
+      <c r="I620" s="84"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I621" s="97"/>
+      <c r="I621" s="84"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I622" s="97"/>
+      <c r="I622" s="84"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I623" s="97"/>
+      <c r="I623" s="84"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I624" s="97"/>
+      <c r="I624" s="84"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I625" s="97"/>
+      <c r="I625" s="84"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I626" s="97"/>
+      <c r="I626" s="84"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I627" s="97"/>
+      <c r="I627" s="84"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I628" s="97"/>
+      <c r="I628" s="84"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I629" s="97"/>
+      <c r="I629" s="84"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I630" s="97"/>
+      <c r="I630" s="84"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I631" s="97"/>
+      <c r="I631" s="84"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I632" s="97"/>
+      <c r="I632" s="84"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I633" s="97"/>
+      <c r="I633" s="84"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I634" s="97"/>
+      <c r="I634" s="84"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I635" s="97"/>
+      <c r="I635" s="84"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I636" s="97"/>
+      <c r="I636" s="84"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I637" s="97"/>
+      <c r="I637" s="84"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I638" s="97"/>
+      <c r="I638" s="84"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I639" s="97"/>
+      <c r="I639" s="84"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I640" s="97"/>
+      <c r="I640" s="84"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I641" s="97"/>
+      <c r="I641" s="84"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I642" s="97"/>
+      <c r="I642" s="84"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I643" s="97"/>
+      <c r="I643" s="84"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I644" s="97"/>
+      <c r="I644" s="84"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I645" s="97"/>
+      <c r="I645" s="84"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I646" s="97"/>
+      <c r="I646" s="84"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I647" s="97"/>
+      <c r="I647" s="84"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I648" s="97"/>
+      <c r="I648" s="84"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I649" s="97"/>
+      <c r="I649" s="84"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I650" s="97"/>
+      <c r="I650" s="84"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I651" s="97"/>
+      <c r="I651" s="84"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I652" s="97"/>
+      <c r="I652" s="84"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I653" s="97"/>
+      <c r="I653" s="84"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I654" s="97"/>
+      <c r="I654" s="84"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I655" s="97"/>
+      <c r="I655" s="84"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I656" s="97"/>
+      <c r="I656" s="84"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I657" s="97"/>
+      <c r="I657" s="84"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I658" s="97"/>
+      <c r="I658" s="84"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I659" s="97"/>
+      <c r="I659" s="84"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I660" s="97"/>
+      <c r="I660" s="84"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I661" s="97"/>
+      <c r="I661" s="84"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I662" s="97"/>
+      <c r="I662" s="84"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I663" s="97"/>
+      <c r="I663" s="84"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I664" s="97"/>
+      <c r="I664" s="84"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I665" s="97"/>
+      <c r="I665" s="84"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I666" s="97"/>
+      <c r="I666" s="84"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I667" s="97"/>
+      <c r="I667" s="84"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I668" s="97"/>
+      <c r="I668" s="84"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I669" s="97"/>
+      <c r="I669" s="84"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I670" s="97"/>
+      <c r="I670" s="84"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I671" s="97"/>
+      <c r="I671" s="84"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I672" s="97"/>
+      <c r="I672" s="84"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I673" s="97"/>
+      <c r="I673" s="84"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I674" s="97"/>
+      <c r="I674" s="84"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I675" s="97"/>
+      <c r="I675" s="84"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I676" s="97"/>
+      <c r="I676" s="84"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I677" s="97"/>
+      <c r="I677" s="84"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I678" s="97"/>
+      <c r="I678" s="84"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I679" s="97"/>
+      <c r="I679" s="84"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I680" s="97"/>
+      <c r="I680" s="84"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I681" s="97"/>
+      <c r="I681" s="84"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I682" s="97"/>
+      <c r="I682" s="84"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I683" s="97"/>
+      <c r="I683" s="84"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I684" s="97"/>
+      <c r="I684" s="84"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I685" s="97"/>
+      <c r="I685" s="84"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I686" s="97"/>
+      <c r="I686" s="84"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I687" s="97"/>
+      <c r="I687" s="84"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I688" s="97"/>
+      <c r="I688" s="84"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I689" s="97"/>
+      <c r="I689" s="84"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I690" s="97"/>
+      <c r="I690" s="84"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I691" s="97"/>
+      <c r="I691" s="84"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I692" s="97"/>
+      <c r="I692" s="84"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I693" s="97"/>
+      <c r="I693" s="84"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I694" s="97"/>
+      <c r="I694" s="84"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I695" s="97"/>
+      <c r="I695" s="84"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I696" s="97"/>
+      <c r="I696" s="84"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I697" s="97"/>
+      <c r="I697" s="84"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I698" s="97"/>
+      <c r="I698" s="84"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I699" s="97"/>
+      <c r="I699" s="84"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I700" s="97"/>
+      <c r="I700" s="84"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I701" s="97"/>
+      <c r="I701" s="84"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I702" s="97"/>
+      <c r="I702" s="84"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I703" s="97"/>
+      <c r="I703" s="84"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I704" s="97"/>
+      <c r="I704" s="84"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I705" s="97"/>
+      <c r="I705" s="84"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I706" s="97"/>
+      <c r="I706" s="84"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I707" s="97"/>
+      <c r="I707" s="84"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I708" s="97"/>
+      <c r="I708" s="84"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I709" s="97"/>
+      <c r="I709" s="84"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I710" s="97"/>
+      <c r="I710" s="84"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I711" s="97"/>
+      <c r="I711" s="84"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I712" s="97"/>
+      <c r="I712" s="84"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I713" s="97"/>
+      <c r="I713" s="84"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I714" s="97"/>
+      <c r="I714" s="84"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I715" s="97"/>
+      <c r="I715" s="84"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I716" s="97"/>
+      <c r="I716" s="84"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I717" s="97"/>
+      <c r="I717" s="84"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I718" s="97"/>
+      <c r="I718" s="84"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I719" s="97"/>
+      <c r="I719" s="84"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I720" s="97"/>
+      <c r="I720" s="84"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I721" s="97"/>
+      <c r="I721" s="84"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I722" s="97"/>
+      <c r="I722" s="84"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I723" s="97"/>
+      <c r="I723" s="84"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I724" s="97"/>
+      <c r="I724" s="84"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I725" s="97"/>
+      <c r="I725" s="84"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I726" s="97"/>
+      <c r="I726" s="84"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I727" s="97"/>
+      <c r="I727" s="84"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I728" s="97"/>
+      <c r="I728" s="84"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I729" s="97"/>
+      <c r="I729" s="84"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I730" s="97"/>
+      <c r="I730" s="84"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I731" s="97"/>
+      <c r="I731" s="84"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I732" s="97"/>
+      <c r="I732" s="84"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I733" s="97"/>
+      <c r="I733" s="84"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I734" s="97"/>
+      <c r="I734" s="84"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I735" s="97"/>
+      <c r="I735" s="84"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I736" s="97"/>
+      <c r="I736" s="84"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I737" s="97"/>
+      <c r="I737" s="84"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I738" s="97"/>
+      <c r="I738" s="84"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I739" s="97"/>
+      <c r="I739" s="84"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I740" s="97"/>
+      <c r="I740" s="84"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I741" s="97"/>
+      <c r="I741" s="84"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I742" s="97"/>
+      <c r="I742" s="84"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I743" s="97"/>
+      <c r="I743" s="84"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I744" s="97"/>
+      <c r="I744" s="84"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I745" s="97"/>
+      <c r="I745" s="84"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I746" s="97"/>
+      <c r="I746" s="84"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I747" s="97"/>
+      <c r="I747" s="84"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I748" s="97"/>
+      <c r="I748" s="84"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I749" s="97"/>
+      <c r="I749" s="84"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I750" s="97"/>
+      <c r="I750" s="84"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I751" s="97"/>
+      <c r="I751" s="84"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I752" s="97"/>
+      <c r="I752" s="84"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I753" s="97"/>
+      <c r="I753" s="84"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I754" s="97"/>
+      <c r="I754" s="84"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I755" s="97"/>
+      <c r="I755" s="84"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I756" s="97"/>
+      <c r="I756" s="84"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I757" s="97"/>
+      <c r="I757" s="84"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I758" s="97"/>
+      <c r="I758" s="84"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -25271,10 +25219,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E221"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="AS2:AS15 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25288,14 +25236,14 @@
       <c r="A1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="85" t="s">
         <v>639</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="85" t="s">
         <v>640</v>
       </c>
     </row>
@@ -25303,14 +25251,14 @@
       <c r="A2" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="85" t="s">
         <v>641</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="85" t="s">
         <v>642</v>
       </c>
     </row>
@@ -25318,67 +25266,67 @@
       <c r="A3" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="85" t="s">
         <v>643</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E3" s="98" t="s">
+      <c r="E3" s="85" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="86" t="s">
         <v>646</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="86" t="s">
         <v>646</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="85" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="87" t="s">
         <v>648</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="E5" s="98" t="s">
+      <c r="E5" s="85" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="87" t="s">
         <v>650</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="87" t="s">
         <v>651</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="85" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="87" t="s">
         <v>653</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="87" t="s">
         <v>654</v>
       </c>
       <c r="C7" s="1"/>

--- a/sheet/cards_s7-2.xlsx
+++ b/sheet/cards_s7-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="679">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -2665,15 +2665,27 @@
     <t xml:space="preserve">01-yurina-A2-n-3</t>
   </si>
   <si>
+    <t xml:space="preserve">01-yurina-o-n-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">問答</t>
   </si>
   <si>
     <t xml:space="preserve">もんどう</t>
   </si>
   <si>
+    <t xml:space="preserve">2-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/0</t>
+  </si>
+  <si>
     <t xml:space="preserve">01-yurina-A2-n-7</t>
   </si>
   <si>
+    <t xml:space="preserve">01-yurina-o-n-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">阿吽</t>
   </si>
   <si>
@@ -2683,7 +2695,67 @@
     <t xml:space="preserve">01-yurina-A2-s-1</t>
   </si>
   <si>
+    <t xml:space="preserve">01-yurina-o-s-1</t>
+  </si>
+  <si>
     <t xml:space="preserve">神座渡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かむくらわたし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-yatsuha-AA1-n-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-yatsuha-o-n-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">見知らぬ世界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">みしらぬせかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-yatsuha-AA1-n-7-ex1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">〇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">色づく世界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">いろづくせかい</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-yatsuha-AA1-n-7-ex2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彼女にとっての桜降る代</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かのじょにとってのさくらふるよ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-yatsuha-AA1-s-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">彼女にとっての自我と決意</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かのじょにとってのじがとけつい</t>
   </si>
   <si>
     <t xml:space="preserve">normal</t>
@@ -3566,7 +3638,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="P23" activeCellId="0" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="P23" activeCellId="1" sqref="O22 P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21232,14 +21304,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AU758"/>
+  <dimension ref="A1:AU1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AA1" activeCellId="0" sqref="AA1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="AD14" activeCellId="0" sqref="AD14"/>
+      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21247,7 +21319,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="19.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="23.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="23.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="16.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="16" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="15.76"/>
@@ -22782,7 +22854,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>631</v>
       </c>
@@ -22792,12 +22864,14 @@
       <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="2" t="s">
+        <v>632</v>
+      </c>
       <c r="E17" s="17" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="54"/>
@@ -22805,18 +22879,28 @@
       <c r="J17" s="77"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="M17" s="17" t="s">
+        <v>459</v>
+      </c>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
+      <c r="R17" s="17" t="s">
+        <v>498</v>
+      </c>
       <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="T17" s="17" t="s">
+        <v>635</v>
+      </c>
       <c r="U17" s="82"/>
-      <c r="V17" s="17"/>
+      <c r="V17" s="17" t="s">
+        <v>636</v>
+      </c>
       <c r="W17" s="82"/>
-      <c r="X17" s="17"/>
+      <c r="X17" s="17" t="s">
+        <v>579</v>
+      </c>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
@@ -22837,9 +22921,9 @@
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
       <c r="AR17" s="19"/>
-      <c r="AS17" s="33" t="e">
+      <c r="AS17" s="33" t="str">
         <f aca="false">IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;"}")</f>
-        <v>#N/A</v>
+        <v>, '01-yurina-A2-n-3': {megami: 'yurina-a2', anotherID: 'A2', replace: '01-yurina-o-n-3', name: '問答', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'もんどう', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-5', damage: '3/0', capacity: '3', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT17" s="34" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
@@ -22850,9 +22934,9 @@
         <v>| '01-yurina-A2-n-3'</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>38</v>
@@ -22860,12 +22944,14 @@
       <c r="C18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="2" t="s">
+        <v>638</v>
+      </c>
       <c r="E18" s="17" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="54"/>
@@ -22873,12 +22959,16 @@
       <c r="J18" s="77"/>
       <c r="K18" s="17"/>
       <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="M18" s="17" t="s">
+        <v>459</v>
+      </c>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="R18" s="17" t="s">
+        <v>460</v>
+      </c>
       <c r="S18" s="17"/>
       <c r="T18" s="17"/>
       <c r="U18" s="82"/>
@@ -22905,22 +22995,22 @@
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
       <c r="AR18" s="19"/>
-      <c r="AS18" s="33" t="e">
+      <c r="AS18" s="33" t="str">
         <f aca="false">IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;"}")</f>
-        <v>#N/A</v>
+        <v>, '01-yurina-A2-n-7': {megami: 'yurina-a2', anotherID: 'A2', replace: '01-yurina-o-n-7', name: '阿吽', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あうん', rubyEn: '', baseType: 'normal', type: 'enhance', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT18" s="34" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    /** 《"&amp;$E18&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A18, 3, 1)="-", RIGHT($A18,LEN($A18)-3), $A18)), "-", "_")&amp;": TCardId = '"&amp;$A18&amp;"';", "")</f>
-        <v>/** 《阿吽》 */ export const YURINA_A2_N_7: TCardId = '01-yurina-A2-n-7';</v>
+        <v>    /** 《阿吽》 */ export const YURINA_A2_N_7: TCardId = '01-yurina-A2-n-7';</v>
       </c>
       <c r="AU18" s="32" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    | '"&amp;$A18&amp;"'", "")</f>
         <v>| '01-yurina-A2-n-7'</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B19" s="17" t="s">
         <v>38</v>
@@ -22928,12 +23018,14 @@
       <c r="C19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="2" t="s">
+        <v>642</v>
+      </c>
       <c r="E19" s="17" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="54"/>
@@ -22941,20 +23033,32 @@
       <c r="J19" s="77"/>
       <c r="K19" s="17"/>
       <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
+      <c r="M19" s="17" t="s">
+        <v>552</v>
+      </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="R19" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="S19" s="17" t="s">
+        <v>486</v>
+      </c>
+      <c r="T19" s="17" t="s">
+        <v>645</v>
+      </c>
       <c r="U19" s="82"/>
-      <c r="V19" s="17"/>
+      <c r="V19" s="17" t="s">
+        <v>646</v>
+      </c>
       <c r="W19" s="82"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
+      <c r="Z19" s="17" t="s">
+        <v>647</v>
+      </c>
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
@@ -22973,30 +23077,328 @@
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
       <c r="AR19" s="19"/>
-      <c r="AS19" s="33" t="e">
+      <c r="AS19" s="33" t="str">
         <f aca="false">IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;"}")</f>
-        <v>#N/A</v>
+        <v>, '01-yurina-A2-s-1': {megami: 'yurina-a2', anotherID: 'A2', replace: '01-yurina-o-s-1', name: '神座渡', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かむくらわたし', rubyEn: '', baseType: 'special', type: 'attack', subType: 'fullpower', range: '0-5', damage: 'X/2', cost: 'X', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT19" s="34" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    /** 《"&amp;$E19&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A19, 3, 1)="-", RIGHT($A19,LEN($A19)-3), $A19)), "-", "_")&amp;": TCardId = '"&amp;$A19&amp;"';", "")</f>
-        <v>/** 《神座渡》 */ export const YURINA_A2_S_1: TCardId = '01-yurina-A2-s-1';</v>
+        <v>    /** 《神座渡》 */ export const YURINA_A2_S_1: TCardId = '01-yurina-A2-s-1';</v>
       </c>
       <c r="AU19" s="32" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    | '"&amp;$A19&amp;"'", "")</f>
         <v>| '01-yurina-A2-s-1'</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="84"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="84"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="84"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="84"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="78"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="20"/>
+      <c r="AJ20" s="78"/>
+      <c r="AK20" s="20"/>
+      <c r="AL20" s="78"/>
+      <c r="AM20" s="26"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+      <c r="AQ20" s="19"/>
+      <c r="AR20" s="19"/>
+      <c r="AS20" s="33" t="str">
+        <f aca="false">IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;"}")</f>
+        <v>, '16-yatsuha-AA1-n-7': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '16-yatsuha-o-n-7', name: '見知らぬ世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みしらぬせかい', rubyEn: '', baseType: 'normal', exchangableTo: '16-yatsuha-AA1-n-7-ex1', type: 'enhance', capacity: '1', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AT20" s="34" t="str">
+        <f aca="false">IF($A20&lt;&gt;"", "    /** 《"&amp;$E20&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A20, 3, 1)="-", RIGHT($A20,LEN($A20)-3), $A20)), "-", "_")&amp;": TCardId = '"&amp;$A20&amp;"';", "")</f>
+        <v>    /** 《見知らぬ世界》 */ export const YATSUHA_AA1_N_7: TCardId = '16-yatsuha-AA1-n-7';</v>
+      </c>
+      <c r="AU20" s="32" t="str">
+        <f aca="false">IF($A20&lt;&gt;"", "    | '"&amp;$A20&amp;"'", "")</f>
+        <v>    | '16-yatsuha-AA1-n-7'</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="78"/>
+      <c r="AE21" s="78"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="20"/>
+      <c r="AJ21" s="78"/>
+      <c r="AK21" s="20"/>
+      <c r="AL21" s="78"/>
+      <c r="AM21" s="26"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="33" t="str">
+        <f aca="false">IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;"}")</f>
+        <v>, '16-yatsuha-AA1-n-7-ex1': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '', name: '色づく世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いろづくせかい', rubyEn: '', baseType: 'special', extraFrom: '16-yatsuha-AA1-n-7', exchangableTo: '16-yatsuha-AA1-n-7-ex2', type: 'action', cost: '2', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AT21" s="34" t="str">
+        <f aca="false">IF($A21&lt;&gt;"", "    /** 《"&amp;$E21&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A21, 3, 1)="-", RIGHT($A21,LEN($A21)-3), $A21)), "-", "_")&amp;": TCardId = '"&amp;$A21&amp;"';", "")</f>
+        <v>    /** 《色づく世界》 */ export const YATSUHA_AA1_N_7_EX1: TCardId = '16-yatsuha-AA1-n-7-ex1';</v>
+      </c>
+      <c r="AU21" s="32" t="str">
+        <f aca="false">IF($A21&lt;&gt;"", "    | '"&amp;$A21&amp;"'", "")</f>
+        <v>    | '16-yatsuha-AA1-n-7-ex1'</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="78"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="20"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="20"/>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="26"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+      <c r="AQ22" s="19"/>
+      <c r="AR22" s="19"/>
+      <c r="AS22" s="33" t="str">
+        <f aca="false">IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;"}")</f>
+        <v>, '16-yatsuha-AA1-n-7-ex2': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '', name: '彼女にとっての桜降る代', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かのじょにとってのさくらふるよ', rubyEn: '', baseType: 'special', extraFrom: '16-yatsuha-AA1-n-7-ex2', type: 'action', cost: '0', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AT22" s="34" t="str">
+        <f aca="false">IF($A22&lt;&gt;"", "    /** 《"&amp;$E22&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A22, 3, 1)="-", RIGHT($A22,LEN($A22)-3), $A22)), "-", "_")&amp;": TCardId = '"&amp;$A22&amp;"';", "")</f>
+        <v>    /** 《彼女にとっての桜降る代》 */ export const YATSUHA_AA1_N_7_EX2: TCardId = '16-yatsuha-AA1-n-7-ex2';</v>
+      </c>
+      <c r="AU22" s="32" t="str">
+        <f aca="false">IF($A22&lt;&gt;"", "    | '"&amp;$A22&amp;"'", "")</f>
+        <v>    | '16-yatsuha-AA1-n-7-ex2'</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17" t="s">
+        <v>485</v>
+      </c>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD23" s="78"/>
+      <c r="AE23" s="78"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="78"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="78"/>
+      <c r="AM23" s="26"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+      <c r="AQ23" s="19"/>
+      <c r="AR23" s="19"/>
+      <c r="AS23" s="33" t="str">
+        <f aca="false">IF(A23="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;IF(AA23="○",", lie: true","")&amp;"}")</f>
+        <v>, '16-yatsuha-AA1-s-4': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '16-yatsuha-A1-s-4', name: '彼女にとっての自我と決意', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かのじょにとってのじがとけつい', rubyEn: '', baseType: 'special', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+      </c>
+      <c r="AT23" s="34" t="str">
+        <f aca="false">IF($A23&lt;&gt;"", "    /** 《"&amp;$E23&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A23, 3, 1)="-", RIGHT($A23,LEN($A23)-3), $A23)), "-", "_")&amp;": TCardId = '"&amp;$A23&amp;"';", "")</f>
+        <v>    /** 《彼女にとっての自我と決意》 */ export const YATSUHA_AA1_S_4: TCardId = '16-yatsuha-AA1-s-4';</v>
+      </c>
+      <c r="AU23" s="32" t="str">
+        <f aca="false">IF($A23&lt;&gt;"", "    | '"&amp;$A23&amp;"'", "")</f>
+        <v>    | '16-yatsuha-AA1-s-4'</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I24" s="84"/>
@@ -25203,6 +25605,7 @@
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I758" s="84"/>
     </row>
+    <row r="1048576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -25222,7 +25625,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="O22 J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25237,14 +25640,14 @@
         <v>459</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>639</v>
+        <v>663</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
         <v>498</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>640</v>
+        <v>664</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25252,14 +25655,14 @@
         <v>552</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>641</v>
+        <v>665</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>485</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>642</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25267,29 +25670,29 @@
         <v>424</v>
       </c>
       <c r="B3" s="85" t="s">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="E3" s="85" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="86" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="B4" s="86" t="s">
-        <v>646</v>
+        <v>670</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>540</v>
       </c>
       <c r="E4" s="85" t="s">
-        <v>647</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25297,37 +25700,37 @@
         <v>269</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>648</v>
+        <v>672</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>486</v>
       </c>
       <c r="E5" s="85" t="s">
-        <v>649</v>
+        <v>673</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="87" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>460</v>
       </c>
       <c r="E6" s="85" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="87" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>

--- a/sheet/cards_s7-2.xlsx
+++ b/sheet/cards_s7-2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="679">
   <si>
     <t xml:space="preserve">メガミID</t>
   </si>
@@ -3638,7 +3638,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="P23" activeCellId="1" sqref="O22 P23"/>
+      <selection pane="bottomRight" activeCell="P23" activeCellId="0" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21311,7 +21311,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
+      <selection pane="bottomRight" activeCell="N21" activeCellId="0" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21328,7 +21328,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="16" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="16" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="16" width="4.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="16" width="18.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="16" width="22.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="16" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="16" width="3.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="16" width="6.88"/>
@@ -22859,7 +22859,7 @@
         <v>631</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>41</v>
@@ -22923,7 +22923,7 @@
       <c r="AR17" s="19"/>
       <c r="AS17" s="33" t="str">
         <f aca="false">IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;"}")</f>
-        <v>, '01-yurina-A2-n-3': {megami: 'yurina-a2', anotherID: 'A2', replace: '01-yurina-o-n-3', name: '問答', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'もんどう', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-5', damage: '3/0', capacity: '3', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '01-yurina-A2-n-3': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-n-3', name: '問答', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'もんどう', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-5', damage: '3/0', capacity: '3', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT17" s="34" t="str">
         <f aca="false">IF($A17&lt;&gt;"", "    /** 《"&amp;$E17&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A17, 3, 1)="-", RIGHT($A17,LEN($A17)-3), $A17)), "-", "_")&amp;": TCardId = '"&amp;$A17&amp;"';", "")</f>
@@ -22939,7 +22939,7 @@
         <v>637</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>41</v>
@@ -22997,11 +22997,11 @@
       <c r="AR18" s="19"/>
       <c r="AS18" s="33" t="str">
         <f aca="false">IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;"}")</f>
-        <v>, '01-yurina-A2-n-7': {megami: 'yurina-a2', anotherID: 'A2', replace: '01-yurina-o-n-7', name: '阿吽', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あうん', rubyEn: '', baseType: 'normal', type: 'enhance', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '01-yurina-A2-n-7': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-n-7', name: '阿吽', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あうん', rubyEn: '', baseType: 'normal', type: 'enhance', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT18" s="34" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    /** 《"&amp;$E18&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A18, 3, 1)="-", RIGHT($A18,LEN($A18)-3), $A18)), "-", "_")&amp;": TCardId = '"&amp;$A18&amp;"';", "")</f>
-        <v>    /** 《阿吽》 */ export const YURINA_A2_N_7: TCardId = '01-yurina-A2-n-7';</v>
+        <v>/** 《阿吽》 */ export const YURINA_A2_N_7: TCardId = '01-yurina-A2-n-7';</v>
       </c>
       <c r="AU18" s="32" t="str">
         <f aca="false">IF($A18&lt;&gt;"", "    | '"&amp;$A18&amp;"'", "")</f>
@@ -23013,7 +23013,7 @@
         <v>641</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>41</v>
@@ -23079,11 +23079,11 @@
       <c r="AR19" s="19"/>
       <c r="AS19" s="33" t="str">
         <f aca="false">IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;"}")</f>
-        <v>, '01-yurina-A2-s-1': {megami: 'yurina-a2', anotherID: 'A2', replace: '01-yurina-o-s-1', name: '神座渡', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かむくらわたし', rubyEn: '', baseType: 'special', type: 'attack', subType: 'fullpower', range: '0-5', damage: 'X/2', cost: 'X', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '01-yurina-A2-s-1': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-s-1', name: '神座渡', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かむくらわたし', rubyEn: '', baseType: 'special', type: 'attack', subType: 'fullpower', range: '0-5', damage: 'X/2', cost: 'X', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT19" s="34" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    /** 《"&amp;$E19&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A19, 3, 1)="-", RIGHT($A19,LEN($A19)-3), $A19)), "-", "_")&amp;": TCardId = '"&amp;$A19&amp;"';", "")</f>
-        <v>    /** 《神座渡》 */ export const YURINA_A2_S_1: TCardId = '01-yurina-A2-s-1';</v>
+        <v>/** 《神座渡》 */ export const YURINA_A2_S_1: TCardId = '01-yurina-A2-s-1';</v>
       </c>
       <c r="AU19" s="32" t="str">
         <f aca="false">IF($A19&lt;&gt;"", "    | '"&amp;$A19&amp;"'", "")</f>
@@ -23095,7 +23095,7 @@
         <v>648</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>342</v>
@@ -23159,15 +23159,15 @@
       <c r="AR20" s="19"/>
       <c r="AS20" s="33" t="str">
         <f aca="false">IF(A20="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A20&amp;"': {megami: '"&amp;B20&amp;"'"&amp;IF(C20&lt;&gt;"",", anotherID: '"&amp;C20&amp;"', replace: '"&amp;D20&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E20,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K20,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G20,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H20,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J20,"'","\'")&amp;"', ruby: '"&amp;F20&amp;"', rubyEn: '"&amp;L20&amp;IF(I20&lt;&gt;"", "', rubyZh: '"&amp;I20, "")&amp;"', baseType: '"&amp;VLOOKUP(M20,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N20="○",", extra: true","")&amp;IF(O20&lt;&gt;"",", extraFrom: '"&amp;O20&amp;"'","")&amp;IF(P20&lt;&gt;"",", exchangableTo: '"&amp;P20&amp;"'","")&amp;IF(Q20="○",", poison: true","")&amp;IF(R20&lt;&gt;"", ", type: '"&amp;VLOOKUP(R20,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S20&lt;&gt;"",", subType: '"&amp;VLOOKUP(S20,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T20&lt;&gt;"",", range: '"&amp;T20&amp;"'","")&amp;IF(V20&lt;&gt;"",", damage: '"&amp;V20&amp;"'","")&amp;IF(X20&lt;&gt;"",", capacity: '"&amp;X20&amp;"'","")&amp;IF(Y20&lt;&gt;"",", growth: "&amp;Y20&amp;"","")&amp;IF(Z20&lt;&gt;"",", cost: '"&amp;Z20&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD20, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE20&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG20&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI20&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK20&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL20, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM20&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM20, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB20="○",", sealable: true","")&amp;IF(AC20="○",", removable: true","")&amp;IF(AA20="○",", lie: true","")&amp;"}")</f>
-        <v>, '16-yatsuha-AA1-n-7': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '16-yatsuha-o-n-7', name: '見知らぬ世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みしらぬせかい', rubyEn: '', baseType: 'normal', exchangableTo: '16-yatsuha-AA1-n-7-ex1', type: 'enhance', capacity: '1', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '16-yatsuha-AA1-n-7': {megami: 'yatsuha', anotherID: 'AA1', replace: '16-yatsuha-o-n-7', name: '見知らぬ世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'みしらぬせかい', rubyEn: '', baseType: 'normal', exchangableTo: '16-yatsuha-AA1-n-7-ex1', type: 'enhance', capacity: '1', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT20" s="34" t="str">
         <f aca="false">IF($A20&lt;&gt;"", "    /** 《"&amp;$E20&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A20, 3, 1)="-", RIGHT($A20,LEN($A20)-3), $A20)), "-", "_")&amp;": TCardId = '"&amp;$A20&amp;"';", "")</f>
-        <v>    /** 《見知らぬ世界》 */ export const YATSUHA_AA1_N_7: TCardId = '16-yatsuha-AA1-n-7';</v>
+        <v>/** 《見知らぬ世界》 */ export const YATSUHA_AA1_N_7: TCardId = '16-yatsuha-AA1-n-7';</v>
       </c>
       <c r="AU20" s="32" t="str">
         <f aca="false">IF($A20&lt;&gt;"", "    | '"&amp;$A20&amp;"'", "")</f>
-        <v>    | '16-yatsuha-AA1-n-7'</v>
+        <v>| '16-yatsuha-AA1-n-7'</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23175,7 +23175,7 @@
         <v>652</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>342</v>
@@ -23196,7 +23196,9 @@
       <c r="M21" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="N21" s="17"/>
+      <c r="N21" s="17" t="s">
+        <v>653</v>
+      </c>
       <c r="O21" s="2" t="s">
         <v>648</v>
       </c>
@@ -23237,15 +23239,15 @@
       <c r="AR21" s="19"/>
       <c r="AS21" s="33" t="str">
         <f aca="false">IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;"}")</f>
-        <v>, '16-yatsuha-AA1-n-7-ex1': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '', name: '色づく世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いろづくせかい', rubyEn: '', baseType: 'special', extraFrom: '16-yatsuha-AA1-n-7', exchangableTo: '16-yatsuha-AA1-n-7-ex2', type: 'action', cost: '2', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '16-yatsuha-AA1-n-7-ex1': {megami: 'yatsuha', anotherID: 'AA1', replace: '', name: '色づく世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いろづくせかい', rubyEn: '', baseType: 'special', extraFrom: '16-yatsuha-AA1-n-7', exchangableTo: '16-yatsuha-AA1-n-7-ex2', type: 'action', cost: '2', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT21" s="34" t="str">
         <f aca="false">IF($A21&lt;&gt;"", "    /** 《"&amp;$E21&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A21, 3, 1)="-", RIGHT($A21,LEN($A21)-3), $A21)), "-", "_")&amp;": TCardId = '"&amp;$A21&amp;"';", "")</f>
-        <v>    /** 《色づく世界》 */ export const YATSUHA_AA1_N_7_EX1: TCardId = '16-yatsuha-AA1-n-7-ex1';</v>
+        <v>/** 《色づく世界》 */ export const YATSUHA_AA1_N_7_EX1: TCardId = '16-yatsuha-AA1-n-7-ex1';</v>
       </c>
       <c r="AU21" s="32" t="str">
         <f aca="false">IF($A21&lt;&gt;"", "    | '"&amp;$A21&amp;"'", "")</f>
-        <v>    | '16-yatsuha-AA1-n-7-ex1'</v>
+        <v>| '16-yatsuha-AA1-n-7-ex1'</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23253,7 +23255,7 @@
         <v>656</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>342</v>
@@ -23274,9 +23276,11 @@
       <c r="M22" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="N22" s="17"/>
+      <c r="N22" s="17" t="s">
+        <v>653</v>
+      </c>
       <c r="O22" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -23313,15 +23317,15 @@
       <c r="AR22" s="19"/>
       <c r="AS22" s="33" t="str">
         <f aca="false">IF(A22="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A22&amp;"': {megami: '"&amp;B22&amp;"'"&amp;IF(C22&lt;&gt;"",", anotherID: '"&amp;C22&amp;"', replace: '"&amp;D22&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E22,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K22,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G22,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H22,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J22,"'","\'")&amp;"', ruby: '"&amp;F22&amp;"', rubyEn: '"&amp;L22&amp;IF(I22&lt;&gt;"", "', rubyZh: '"&amp;I22, "")&amp;"', baseType: '"&amp;VLOOKUP(M22,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N22="○",", extra: true","")&amp;IF(O22&lt;&gt;"",", extraFrom: '"&amp;O22&amp;"'","")&amp;IF(P22&lt;&gt;"",", exchangableTo: '"&amp;P22&amp;"'","")&amp;IF(Q22="○",", poison: true","")&amp;IF(R22&lt;&gt;"", ", type: '"&amp;VLOOKUP(R22,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S22&lt;&gt;"",", subType: '"&amp;VLOOKUP(S22,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T22&lt;&gt;"",", range: '"&amp;T22&amp;"'","")&amp;IF(V22&lt;&gt;"",", damage: '"&amp;V22&amp;"'","")&amp;IF(X22&lt;&gt;"",", capacity: '"&amp;X22&amp;"'","")&amp;IF(Y22&lt;&gt;"",", growth: "&amp;Y22&amp;"","")&amp;IF(Z22&lt;&gt;"",", cost: '"&amp;Z22&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD22, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE22&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG22&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI22&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK22&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL22, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM22&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM22, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB22="○",", sealable: true","")&amp;IF(AC22="○",", removable: true","")&amp;IF(AA22="○",", lie: true","")&amp;"}")</f>
-        <v>, '16-yatsuha-AA1-n-7-ex2': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '', name: '彼女にとっての桜降る代', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かのじょにとってのさくらふるよ', rubyEn: '', baseType: 'special', extraFrom: '16-yatsuha-AA1-n-7-ex2', type: 'action', cost: '0', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '16-yatsuha-AA1-n-7-ex2': {megami: 'yatsuha', anotherID: 'AA1', replace: '', name: '彼女にとっての桜降る代', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かのじょにとってのさくらふるよ', rubyEn: '', baseType: 'special', extraFrom: '16-yatsuha-AA1-n-7-ex1', type: 'action', cost: '0', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT22" s="34" t="str">
         <f aca="false">IF($A22&lt;&gt;"", "    /** 《"&amp;$E22&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A22, 3, 1)="-", RIGHT($A22,LEN($A22)-3), $A22)), "-", "_")&amp;": TCardId = '"&amp;$A22&amp;"';", "")</f>
-        <v>    /** 《彼女にとっての桜降る代》 */ export const YATSUHA_AA1_N_7_EX2: TCardId = '16-yatsuha-AA1-n-7-ex2';</v>
+        <v>/** 《彼女にとっての桜降る代》 */ export const YATSUHA_AA1_N_7_EX2: TCardId = '16-yatsuha-AA1-n-7-ex2';</v>
       </c>
       <c r="AU22" s="32" t="str">
         <f aca="false">IF($A22&lt;&gt;"", "    | '"&amp;$A22&amp;"'", "")</f>
-        <v>    | '16-yatsuha-AA1-n-7-ex2'</v>
+        <v>| '16-yatsuha-AA1-n-7-ex2'</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23329,7 +23333,7 @@
         <v>660</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>342</v>
@@ -23366,7 +23370,9 @@
       <c r="W23" s="82"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
+      <c r="Z23" s="17" t="s">
+        <v>625</v>
+      </c>
       <c r="AA23" s="17"/>
       <c r="AB23" s="17"/>
       <c r="AC23" s="17" t="s">
@@ -23389,15 +23395,15 @@
       <c r="AR23" s="19"/>
       <c r="AS23" s="33" t="str">
         <f aca="false">IF(A23="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A23&amp;"': {megami: '"&amp;B23&amp;"'"&amp;IF(C23&lt;&gt;"",", anotherID: '"&amp;C23&amp;"', replace: '"&amp;D23&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E23,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K23,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G23,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H23,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J23,"'","\'")&amp;"', ruby: '"&amp;F23&amp;"', rubyEn: '"&amp;L23&amp;IF(I23&lt;&gt;"", "', rubyZh: '"&amp;I23, "")&amp;"', baseType: '"&amp;VLOOKUP(M23,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N23="○",", extra: true","")&amp;IF(O23&lt;&gt;"",", extraFrom: '"&amp;O23&amp;"'","")&amp;IF(P23&lt;&gt;"",", exchangableTo: '"&amp;P23&amp;"'","")&amp;IF(Q23="○",", poison: true","")&amp;IF(R23&lt;&gt;"", ", type: '"&amp;VLOOKUP(R23,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S23&lt;&gt;"",", subType: '"&amp;VLOOKUP(S23,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T23&lt;&gt;"",", range: '"&amp;T23&amp;"'","")&amp;IF(V23&lt;&gt;"",", damage: '"&amp;V23&amp;"'","")&amp;IF(X23&lt;&gt;"",", capacity: '"&amp;X23&amp;"'","")&amp;IF(Y23&lt;&gt;"",", growth: "&amp;Y23&amp;"","")&amp;IF(Z23&lt;&gt;"",", cost: '"&amp;Z23&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD23, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE23&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG23&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI23&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK23&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL23, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM23&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM23, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB23="○",", sealable: true","")&amp;IF(AC23="○",", removable: true","")&amp;IF(AA23="○",", lie: true","")&amp;"}")</f>
-        <v>, '16-yatsuha-AA1-s-4': {megami: 'yatsuha-aa1', anotherID: 'AA1', replace: '16-yatsuha-A1-s-4', name: '彼女にとっての自我と決意', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かのじょにとってのじがとけつい', rubyEn: '', baseType: 'special', type: 'action', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '16-yatsuha-AA1-s-4': {megami: 'yatsuha', anotherID: 'AA1', replace: '16-yatsuha-A1-s-4', name: '彼女にとっての自我と決意', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かのじょにとってのじがとけつい', rubyEn: '', baseType: 'special', type: 'action', cost: '4', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT23" s="34" t="str">
         <f aca="false">IF($A23&lt;&gt;"", "    /** 《"&amp;$E23&amp;"》 */ export const "&amp;SUBSTITUTE(UPPER(IF(MID($A23, 3, 1)="-", RIGHT($A23,LEN($A23)-3), $A23)), "-", "_")&amp;": TCardId = '"&amp;$A23&amp;"';", "")</f>
-        <v>    /** 《彼女にとっての自我と決意》 */ export const YATSUHA_AA1_S_4: TCardId = '16-yatsuha-AA1-s-4';</v>
+        <v>/** 《彼女にとっての自我と決意》 */ export const YATSUHA_AA1_S_4: TCardId = '16-yatsuha-AA1-s-4';</v>
       </c>
       <c r="AU23" s="32" t="str">
         <f aca="false">IF($A23&lt;&gt;"", "    | '"&amp;$A23&amp;"'", "")</f>
-        <v>    | '16-yatsuha-AA1-s-4'</v>
+        <v>| '16-yatsuha-AA1-s-4'</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25625,7 +25631,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="O22 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/sheet/cards_s7-2.xlsx
+++ b/sheet/cards_s7-2.xlsx
@@ -11,7 +11,7 @@
     <sheet name="新幕シーズン7-2" sheetId="2" r:id="rId2"/>
     <sheet name="マスタ" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="688">
   <si>
     <t>メガミID</t>
   </si>
@@ -3164,12 +3164,269 @@
     <t>○</t>
     <phoneticPr fontId="39"/>
   </si>
+  <si>
+    <t>【攻撃後】相手がライフへのダメージを選んだならば、相手の山札の上から3枚を伏せ札にして、あなたは基本動作を1回行い、相手は同じ基本動作を可能ならば行う。</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>フダ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="39"/>
+  </si>
+  <si>
+    <t>【展開中】各ターンで《攻撃》のダメージまたは基本動作で初めて相手のオーラが変化した時、その《攻撃》や基本動作の解決後にあなたは以下のいずれかを行ってもよい。
+・基本動作《纏い》を行う。その後、基本動作《宿し》を行ってもよい。
+・攻撃『適正距離3-5、2/1』を行う。</t>
+    <rPh sb="1" eb="4">
+      <t>テンカイチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>マト</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ヤド</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>テキセイ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="39"/>
+  </si>
+  <si>
+    <t>対応不可
+【常時】Xはこのカードのコストを支払う際のあなたのフレアに等しい。
+【攻撃後】基本動作《纏い》か《宿し》を合計X回まで行う。あなたの使用済の切札をX枚まで選び、それらを未使用に戻す。このターンの間、手札の上限がX増加する。</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>キリフダ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="89" eb="92">
+      <t>ミシヨウ</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="39"/>
+  </si>
+  <si>
+    <t>（表向きの状態で右クリックすることで効果を発動可能。以降は、画面上の「旅路」ボタンから旅路を進めることができる）</t>
+    <rPh sb="26" eb="28">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ガメンジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>タビジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タビジ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="39"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3207,7 +3464,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3430,6 +3687,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4F81BD"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -3490,7 +3754,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3738,6 +4002,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -21780,10 +22047,10 @@
   <dimension ref="A1:AMK758"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="N22" sqref="N22"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23326,7 +23593,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:47" ht="24">
       <c r="A17" s="2" t="s">
         <v>631</v>
       </c>
@@ -23370,15 +23637,15 @@
         <v>636</v>
       </c>
       <c r="W17" s="82"/>
-      <c r="X17" s="17" t="s">
-        <v>579</v>
-      </c>
+      <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
       <c r="AB17" s="17"/>
       <c r="AC17" s="17"/>
-      <c r="AD17" s="78"/>
+      <c r="AD17" s="78" t="s">
+        <v>684</v>
+      </c>
       <c r="AE17" s="78"/>
       <c r="AF17" s="83"/>
       <c r="AG17" s="20"/>
@@ -23395,7 +23662,7 @@
       <c r="AR17" s="19"/>
       <c r="AS17" s="33" t="str">
         <f>IF(A17="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A17&amp;"': {megami: '"&amp;B17&amp;"'"&amp;IF(C17&lt;&gt;"",", anotherID: '"&amp;C17&amp;"', replace: '"&amp;D17&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E17,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K17,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G17,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H17,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J17,"'","\'")&amp;"', ruby: '"&amp;F17&amp;"', rubyEn: '"&amp;L17&amp;IF(I17&lt;&gt;"", "', rubyZh: '"&amp;I17, "")&amp;"', baseType: '"&amp;VLOOKUP(M17,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N17="○",", extra: true","")&amp;IF(O17&lt;&gt;"",", extraFrom: '"&amp;O17&amp;"'","")&amp;IF(P17&lt;&gt;"",", exchangableTo: '"&amp;P17&amp;"'","")&amp;IF(Q17="○",", poison: true","")&amp;IF(R17&lt;&gt;"", ", type: '"&amp;VLOOKUP(R17,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S17&lt;&gt;"",", subType: '"&amp;VLOOKUP(S17,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T17&lt;&gt;"",", range: '"&amp;T17&amp;"'","")&amp;IF(V17&lt;&gt;"",", damage: '"&amp;V17&amp;"'","")&amp;IF(X17&lt;&gt;"",", capacity: '"&amp;X17&amp;"'","")&amp;IF(Y17&lt;&gt;"",", growth: "&amp;Y17&amp;"","")&amp;IF(Z17&lt;&gt;"",", cost: '"&amp;Z17&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD17, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE17&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG17&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI17&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK17&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL17, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM17&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM17, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB17="○",", sealable: true","")&amp;IF(AC17="○",", removable: true","")&amp;IF(AA17="○",", lie: true","")&amp;"}")</f>
-        <v>, '01-yurina-A2-n-3': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-n-3', name: '問答', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'もんどう', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-5', damage: '3/0', capacity: '3', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '01-yurina-A2-n-3': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-n-3', name: '問答', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'もんどう', rubyEn: '', baseType: 'normal', type: 'attack', range: '2-5', damage: '3/0', text: '【攻撃後】相手がライフへのダメージを選んだならば、相手の山札の上から3枚を伏せ札にして、あなたは基本動作を1回行い、相手は同じ基本動作を可能ならば行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT17" s="34" t="str">
         <f t="shared" si="1"/>
@@ -23406,7 +23673,7 @@
         <v xml:space="preserve">    | '01-yurina-A2-n-3'</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:47" ht="60">
       <c r="A18" s="2" t="s">
         <v>637</v>
       </c>
@@ -23446,13 +23713,17 @@
       <c r="U18" s="82"/>
       <c r="V18" s="17"/>
       <c r="W18" s="82"/>
-      <c r="X18" s="17"/>
+      <c r="X18" s="17" t="s">
+        <v>579</v>
+      </c>
       <c r="Y18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
       <c r="AB18" s="17"/>
       <c r="AC18" s="17"/>
-      <c r="AD18" s="78"/>
+      <c r="AD18" s="78" t="s">
+        <v>685</v>
+      </c>
       <c r="AE18" s="78"/>
       <c r="AF18" s="83"/>
       <c r="AG18" s="20"/>
@@ -23469,7 +23740,7 @@
       <c r="AR18" s="19"/>
       <c r="AS18" s="33" t="str">
         <f>IF(A18="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A18&amp;"': {megami: '"&amp;B18&amp;"'"&amp;IF(C18&lt;&gt;"",", anotherID: '"&amp;C18&amp;"', replace: '"&amp;D18&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E18,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K18,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G18,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H18,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J18,"'","\'")&amp;"', ruby: '"&amp;F18&amp;"', rubyEn: '"&amp;L18&amp;IF(I18&lt;&gt;"", "', rubyZh: '"&amp;I18, "")&amp;"', baseType: '"&amp;VLOOKUP(M18,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N18="○",", extra: true","")&amp;IF(O18&lt;&gt;"",", extraFrom: '"&amp;O18&amp;"'","")&amp;IF(P18&lt;&gt;"",", exchangableTo: '"&amp;P18&amp;"'","")&amp;IF(Q18="○",", poison: true","")&amp;IF(R18&lt;&gt;"", ", type: '"&amp;VLOOKUP(R18,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S18&lt;&gt;"",", subType: '"&amp;VLOOKUP(S18,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T18&lt;&gt;"",", range: '"&amp;T18&amp;"'","")&amp;IF(V18&lt;&gt;"",", damage: '"&amp;V18&amp;"'","")&amp;IF(X18&lt;&gt;"",", capacity: '"&amp;X18&amp;"'","")&amp;IF(Y18&lt;&gt;"",", growth: "&amp;Y18&amp;"","")&amp;IF(Z18&lt;&gt;"",", cost: '"&amp;Z18&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD18, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE18&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG18&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI18&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK18&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL18, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM18&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM18, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB18="○",", sealable: true","")&amp;IF(AC18="○",", removable: true","")&amp;IF(AA18="○",", lie: true","")&amp;"}")</f>
-        <v>, '01-yurina-A2-n-7': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-n-7', name: '阿吽', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あうん', rubyEn: '', baseType: 'normal', type: 'enhance', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '01-yurina-A2-n-7': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-n-7', name: '阿吽', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'あうん', rubyEn: '', baseType: 'normal', type: 'enhance', capacity: '3', text: '【展開中】各ターンで《攻撃》のダメージまたは基本動作で初めて相手のオーラが変化した時、その《攻撃》や基本動作の解決後にあなたは以下のいずれかを行ってもよい。\n・基本動作《纏い》を行う。その後、基本動作《宿し》を行ってもよい。\n・攻撃『適正距離3-5、2/1』を行う。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT18" s="34" t="str">
         <f t="shared" si="1"/>
@@ -23480,7 +23751,7 @@
         <v xml:space="preserve">    | '01-yurina-A2-n-7'</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:47" ht="48">
       <c r="A19" s="2" t="s">
         <v>641</v>
       </c>
@@ -23534,7 +23805,9 @@
       <c r="AA19" s="17"/>
       <c r="AB19" s="17"/>
       <c r="AC19" s="17"/>
-      <c r="AD19" s="78"/>
+      <c r="AD19" s="78" t="s">
+        <v>686</v>
+      </c>
       <c r="AE19" s="78"/>
       <c r="AF19" s="83"/>
       <c r="AG19" s="20"/>
@@ -23551,7 +23824,7 @@
       <c r="AR19" s="19"/>
       <c r="AS19" s="33" t="str">
         <f>IF(A19="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A19&amp;"': {megami: '"&amp;B19&amp;"'"&amp;IF(C19&lt;&gt;"",", anotherID: '"&amp;C19&amp;"', replace: '"&amp;D19&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E19,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K19,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G19,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H19,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J19,"'","\'")&amp;"', ruby: '"&amp;F19&amp;"', rubyEn: '"&amp;L19&amp;IF(I19&lt;&gt;"", "', rubyZh: '"&amp;I19, "")&amp;"', baseType: '"&amp;VLOOKUP(M19,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N19="○",", extra: true","")&amp;IF(O19&lt;&gt;"",", extraFrom: '"&amp;O19&amp;"'","")&amp;IF(P19&lt;&gt;"",", exchangableTo: '"&amp;P19&amp;"'","")&amp;IF(Q19="○",", poison: true","")&amp;IF(R19&lt;&gt;"", ", type: '"&amp;VLOOKUP(R19,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S19&lt;&gt;"",", subType: '"&amp;VLOOKUP(S19,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T19&lt;&gt;"",", range: '"&amp;T19&amp;"'","")&amp;IF(V19&lt;&gt;"",", damage: '"&amp;V19&amp;"'","")&amp;IF(X19&lt;&gt;"",", capacity: '"&amp;X19&amp;"'","")&amp;IF(Y19&lt;&gt;"",", growth: "&amp;Y19&amp;"","")&amp;IF(Z19&lt;&gt;"",", cost: '"&amp;Z19&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD19, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE19&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG19&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI19&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK19&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL19, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM19&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM19, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB19="○",", sealable: true","")&amp;IF(AC19="○",", removable: true","")&amp;IF(AA19="○",", lie: true","")&amp;"}")</f>
-        <v>, '01-yurina-A2-s-1': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-s-1', name: '神座渡', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かむくらわたし', rubyEn: '', baseType: 'special', type: 'attack', subType: 'fullpower', range: '0-5', damage: 'X/2', cost: 'X', text: '', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '01-yurina-A2-s-1': {megami: 'yurina', anotherID: 'A2', replace: '01-yurina-o-s-1', name: '神座渡', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'かむくらわたし', rubyEn: '', baseType: 'special', type: 'attack', subType: 'fullpower', range: '0-5', damage: 'X/2', cost: 'X', text: '対応不可\n【常時】Xはこのカードのコストを支払う際のあなたのフレアに等しい。\n【攻撃後】基本動作《纏い》か《宿し》を合計X回まで行う。あなたの使用済の切札をX枚まで選び、それらを未使用に戻す。このターンの間、手札の上限がX増加する。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT19" s="34" t="str">
         <f t="shared" si="1"/>
@@ -23695,7 +23968,9 @@
       <c r="AD21" s="78" t="s">
         <v>680</v>
       </c>
-      <c r="AE21" s="78"/>
+      <c r="AE21" s="88" t="s">
+        <v>687</v>
+      </c>
       <c r="AF21" s="83"/>
       <c r="AG21" s="20"/>
       <c r="AH21" s="59"/>
@@ -23711,7 +23986,7 @@
       <c r="AR21" s="19"/>
       <c r="AS21" s="33" t="str">
         <f>IF(A21="", "", IF(ROW()&gt;=3, ", ", "")&amp;"'"&amp;A21&amp;"': {megami: '"&amp;B21&amp;"'"&amp;IF(C21&lt;&gt;"",", anotherID: '"&amp;C21&amp;"', replace: '"&amp;D21&amp;"'","")&amp;", name: '"&amp;SUBSTITUTE(E21,"'","\'")&amp;"', nameEn: '"&amp;SUBSTITUTE(K21,"'","\'")&amp;"', nameZh: '"&amp;SUBSTITUTE(G21,"'","\'")&amp;"', nameZhG1: '"&amp;SUBSTITUTE(H21,"'","\'")&amp;"', nameKo: '"&amp;SUBSTITUTE(J21,"'","\'")&amp;"', ruby: '"&amp;F21&amp;"', rubyEn: '"&amp;L21&amp;IF(I21&lt;&gt;"", "', rubyZh: '"&amp;I21, "")&amp;"', baseType: '"&amp;VLOOKUP(M21,マスタ!$A$1:$B$99,2,0)&amp;"'"&amp;IF(N21="○",", extra: true","")&amp;IF(O21&lt;&gt;"",", extraFrom: '"&amp;O21&amp;"'","")&amp;IF(P21&lt;&gt;"",", exchangableTo: '"&amp;P21&amp;"'","")&amp;IF(Q21="○",", poison: true","")&amp;IF(R21&lt;&gt;"", ", type: '"&amp;VLOOKUP(R21,マスタ!$D$1:$E$99,2,0)&amp;"'", "")&amp;IF(S21&lt;&gt;"",", subType: '"&amp;VLOOKUP(S21,マスタ!$D$1:$E$99,2,0)&amp;"'","")&amp;""&amp;IF(T21&lt;&gt;"",", range: '"&amp;T21&amp;"'","")&amp;IF(V21&lt;&gt;"",", damage: '"&amp;V21&amp;"'","")&amp;IF(X21&lt;&gt;"",", capacity: '"&amp;X21&amp;"'","")&amp;IF(Y21&lt;&gt;"",", growth: "&amp;Y21&amp;"","")&amp;IF(Z21&lt;&gt;"",", cost: '"&amp;Z21&amp;"'","")&amp;", text: '"&amp;SUBSTITUTE(SUBSTITUTE(AD21, CHAR(13), ""),CHAR(10),"\n")&amp;IF(AE21&lt;&gt;"", "', textAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AE21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textZh: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AF21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;"', textZhG1: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AH21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AG21&lt;&gt;"", "', textZhAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AG21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;IF(AI21&lt;&gt;"", "', textZhG1Additional: '"&amp;SUBSTITUTE(SUBSTITUTE(AI21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textKo: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AJ21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AK21&lt;&gt;"", "', textKoAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AK21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"', textEn: '"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(AL21, CHAR(13), ""),CHAR(10),"\n"),"'","\'")&amp;IF(AM21&lt;&gt;"", "', textEnAdditional: '"&amp;SUBSTITUTE(SUBSTITUTE(AM21, CHAR(13), ""),CHAR(10),"\n"), "")&amp;"'"&amp;IF(AB21="○",", sealable: true","")&amp;IF(AC21="○",", removable: true","")&amp;IF(AA21="○",", lie: true","")&amp;"}")</f>
-        <v>, '16-yatsuha-AA1-n-7-ex1': {megami: 'yatsuha', anotherID: 'AA1', replace: '', name: '色づく世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いろづくせかい', rubyEn: '', baseType: 'special', extra: true, extraFrom: '16-yatsuha-AA1-n-7', type: 'action', cost: '2', text: '桜降る代の旅路に任意の始点から出発する。\n【使用済】各ターンの開始フェイズの開始時に所在地の効果を解決し、桜花結晶を次の位置へと時計回りに動かす。始点の効果を2回目に解決するならば、代わりに家路の効果を解決する。', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
+        <v>, '16-yatsuha-AA1-n-7-ex1': {megami: 'yatsuha', anotherID: 'AA1', replace: '', name: '色づく世界', nameEn: '', nameZh: '', nameZhG1: '', nameKo: '', ruby: 'いろづくせかい', rubyEn: '', baseType: 'special', extra: true, extraFrom: '16-yatsuha-AA1-n-7', type: 'action', cost: '2', text: '桜降る代の旅路に任意の始点から出発する。\n【使用済】各ターンの開始フェイズの開始時に所在地の効果を解決し、桜花結晶を次の位置へと時計回りに動かす。始点の効果を2回目に解決するならば、代わりに家路の効果を解決する。', textAdditional: '（表向きの状態で右クリックすることで効果を発動可能。以降は、画面上の「旅路」ボタンから旅路を進めることができる）', textZh: '', textZhG1: '', textKo: '', textEn: ''}</v>
       </c>
       <c r="AT21" s="34" t="str">
         <f t="shared" si="1"/>
@@ -26090,7 +26365,7 @@
   </sheetData>
   <phoneticPr fontId="39"/>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
